--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -13,7 +13,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BM$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BM$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$5:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="201">
   <si>
     <t>Project Lead:</t>
   </si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>ALL AG</t>
+  </si>
+  <si>
+    <t>Other Algorithms research</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2001,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2046,6 +2049,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2347,36 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2390,8 +2364,38 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="67">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2442,6 +2446,7 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
@@ -2459,7 +2464,26 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2735,272 +2759,6 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3639,11 +3397,11 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN80"/>
+  <dimension ref="A1:BN81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3677,20 +3435,20 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="137" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="133"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3751,336 +3509,336 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="134">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="141">
         <v>42088</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="141"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
-        <v>42086</v>
+        <v>42107</v>
       </c>
       <c r="K4" s="9">
         <f>J4+1</f>
-        <v>42087</v>
+        <v>42108</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:BM4" si="0">K4+1</f>
-        <v>42088</v>
+        <v>42109</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" si="0"/>
-        <v>42089</v>
+        <v>42110</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="0"/>
-        <v>42090</v>
+        <v>42111</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>42091</v>
+        <v>42112</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>42092</v>
+        <v>42113</v>
       </c>
       <c r="Q4" s="9">
         <f t="shared" si="0"/>
-        <v>42093</v>
+        <v>42114</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="0"/>
-        <v>42094</v>
+        <v>42115</v>
       </c>
       <c r="S4" s="9">
         <f t="shared" si="0"/>
-        <v>42095</v>
+        <v>42116</v>
       </c>
       <c r="T4" s="9">
         <f t="shared" si="0"/>
-        <v>42096</v>
+        <v>42117</v>
       </c>
       <c r="U4" s="9">
         <f t="shared" si="0"/>
-        <v>42097</v>
+        <v>42118</v>
       </c>
       <c r="V4" s="9">
         <f t="shared" si="0"/>
-        <v>42098</v>
+        <v>42119</v>
       </c>
       <c r="W4" s="9">
         <f t="shared" si="0"/>
-        <v>42099</v>
+        <v>42120</v>
       </c>
       <c r="X4" s="9">
         <f t="shared" si="0"/>
-        <v>42100</v>
+        <v>42121</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" si="0"/>
-        <v>42101</v>
+        <v>42122</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" si="0"/>
-        <v>42102</v>
+        <v>42123</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="0"/>
-        <v>42103</v>
+        <v>42124</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="0"/>
-        <v>42104</v>
+        <v>42125</v>
       </c>
       <c r="AC4" s="9">
         <f t="shared" si="0"/>
-        <v>42105</v>
+        <v>42126</v>
       </c>
       <c r="AD4" s="9">
         <f t="shared" si="0"/>
-        <v>42106</v>
+        <v>42127</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="0"/>
-        <v>42107</v>
+        <v>42128</v>
       </c>
       <c r="AF4" s="9">
         <f t="shared" si="0"/>
-        <v>42108</v>
+        <v>42129</v>
       </c>
       <c r="AG4" s="9">
         <f t="shared" si="0"/>
-        <v>42109</v>
+        <v>42130</v>
       </c>
       <c r="AH4" s="9">
         <f t="shared" si="0"/>
-        <v>42110</v>
+        <v>42131</v>
       </c>
       <c r="AI4" s="9">
         <f t="shared" si="0"/>
-        <v>42111</v>
+        <v>42132</v>
       </c>
       <c r="AJ4" s="9">
         <f t="shared" si="0"/>
-        <v>42112</v>
+        <v>42133</v>
       </c>
       <c r="AK4" s="9">
         <f t="shared" si="0"/>
-        <v>42113</v>
+        <v>42134</v>
       </c>
       <c r="AL4" s="9">
         <f t="shared" si="0"/>
-        <v>42114</v>
+        <v>42135</v>
       </c>
       <c r="AM4" s="9">
         <f t="shared" si="0"/>
-        <v>42115</v>
+        <v>42136</v>
       </c>
       <c r="AN4" s="9">
         <f t="shared" si="0"/>
-        <v>42116</v>
+        <v>42137</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="0"/>
-        <v>42117</v>
+        <v>42138</v>
       </c>
       <c r="AP4" s="9">
         <f t="shared" si="0"/>
-        <v>42118</v>
+        <v>42139</v>
       </c>
       <c r="AQ4" s="9">
         <f t="shared" si="0"/>
-        <v>42119</v>
+        <v>42140</v>
       </c>
       <c r="AR4" s="9">
         <f t="shared" si="0"/>
-        <v>42120</v>
+        <v>42141</v>
       </c>
       <c r="AS4" s="9">
         <f t="shared" si="0"/>
-        <v>42121</v>
+        <v>42142</v>
       </c>
       <c r="AT4" s="9">
         <f t="shared" si="0"/>
-        <v>42122</v>
+        <v>42143</v>
       </c>
       <c r="AU4" s="9">
         <f t="shared" si="0"/>
-        <v>42123</v>
+        <v>42144</v>
       </c>
       <c r="AV4" s="9">
         <f t="shared" si="0"/>
-        <v>42124</v>
+        <v>42145</v>
       </c>
       <c r="AW4" s="9">
         <f t="shared" si="0"/>
-        <v>42125</v>
+        <v>42146</v>
       </c>
       <c r="AX4" s="9">
         <f t="shared" si="0"/>
-        <v>42126</v>
+        <v>42147</v>
       </c>
       <c r="AY4" s="9">
         <f t="shared" si="0"/>
-        <v>42127</v>
+        <v>42148</v>
       </c>
       <c r="AZ4" s="9">
         <f t="shared" si="0"/>
-        <v>42128</v>
+        <v>42149</v>
       </c>
       <c r="BA4" s="9">
         <f t="shared" si="0"/>
-        <v>42129</v>
+        <v>42150</v>
       </c>
       <c r="BB4" s="9">
         <f t="shared" si="0"/>
-        <v>42130</v>
+        <v>42151</v>
       </c>
       <c r="BC4" s="9">
         <f t="shared" si="0"/>
-        <v>42131</v>
+        <v>42152</v>
       </c>
       <c r="BD4" s="9">
         <f t="shared" si="0"/>
-        <v>42132</v>
+        <v>42153</v>
       </c>
       <c r="BE4" s="9">
         <f t="shared" si="0"/>
-        <v>42133</v>
+        <v>42154</v>
       </c>
       <c r="BF4" s="9">
         <f t="shared" si="0"/>
-        <v>42134</v>
+        <v>42155</v>
       </c>
       <c r="BG4" s="9">
         <f t="shared" si="0"/>
-        <v>42135</v>
+        <v>42156</v>
       </c>
       <c r="BH4" s="9">
         <f t="shared" si="0"/>
-        <v>42136</v>
+        <v>42157</v>
       </c>
       <c r="BI4" s="9">
         <f t="shared" si="0"/>
-        <v>42137</v>
+        <v>42158</v>
       </c>
       <c r="BJ4" s="9">
         <f t="shared" si="0"/>
-        <v>42138</v>
+        <v>42159</v>
       </c>
       <c r="BK4" s="9">
         <f t="shared" si="0"/>
-        <v>42139</v>
+        <v>42160</v>
       </c>
       <c r="BL4" s="9">
         <f t="shared" si="0"/>
-        <v>42140</v>
+        <v>42161</v>
       </c>
       <c r="BM4" s="9">
         <f t="shared" si="0"/>
-        <v>42141</v>
+        <v>42162</v>
       </c>
     </row>
     <row r="5" spans="1:66">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="130" t="str">
+      <c r="J5" s="134" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130" t="str">
+        <v>Week 4</v>
+      </c>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="130" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="130"/>
-      <c r="AV5" s="130"/>
-      <c r="AW5" s="130"/>
-      <c r="AX5" s="130"/>
-      <c r="AY5" s="130"/>
-      <c r="AZ5" s="130" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BA5" s="130"/>
-      <c r="BB5" s="130"/>
-      <c r="BC5" s="130"/>
-      <c r="BD5" s="130"/>
-      <c r="BE5" s="130"/>
-      <c r="BF5" s="130"/>
-      <c r="BG5" s="130" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BH5" s="130"/>
-      <c r="BI5" s="130"/>
-      <c r="BJ5" s="130"/>
-      <c r="BK5" s="130"/>
-      <c r="BL5" s="130"/>
-      <c r="BM5" s="130"/>
+        <v>Week 11</v>
+      </c>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
     </row>
     <row r="6" spans="1:66">
       <c r="B6" s="22"/>
       <c r="J6" s="135">
         <f>J4</f>
-        <v>42086</v>
+        <v>42107</v>
       </c>
       <c r="K6" s="135"/>
       <c r="L6" s="135"/>
@@ -4090,7 +3848,7 @@
       <c r="P6" s="135"/>
       <c r="Q6" s="135">
         <f>Q4</f>
-        <v>42093</v>
+        <v>42114</v>
       </c>
       <c r="R6" s="135"/>
       <c r="S6" s="135"/>
@@ -4100,7 +3858,7 @@
       <c r="W6" s="135"/>
       <c r="X6" s="135">
         <f>X4</f>
-        <v>42100</v>
+        <v>42121</v>
       </c>
       <c r="Y6" s="135"/>
       <c r="Z6" s="135"/>
@@ -4110,7 +3868,7 @@
       <c r="AD6" s="135"/>
       <c r="AE6" s="135">
         <f>AE4</f>
-        <v>42107</v>
+        <v>42128</v>
       </c>
       <c r="AF6" s="135"/>
       <c r="AG6" s="135"/>
@@ -4120,7 +3878,7 @@
       <c r="AK6" s="135"/>
       <c r="AL6" s="135">
         <f>AL4</f>
-        <v>42114</v>
+        <v>42135</v>
       </c>
       <c r="AM6" s="135"/>
       <c r="AN6" s="135"/>
@@ -4130,7 +3888,7 @@
       <c r="AR6" s="135"/>
       <c r="AS6" s="135">
         <f>AS4</f>
-        <v>42121</v>
+        <v>42142</v>
       </c>
       <c r="AT6" s="135"/>
       <c r="AU6" s="135"/>
@@ -4140,7 +3898,7 @@
       <c r="AY6" s="135"/>
       <c r="AZ6" s="135">
         <f>AZ4</f>
-        <v>42128</v>
+        <v>42149</v>
       </c>
       <c r="BA6" s="135"/>
       <c r="BB6" s="135"/>
@@ -4150,7 +3908,7 @@
       <c r="BF6" s="135"/>
       <c r="BG6" s="135">
         <f>BG4</f>
-        <v>42135</v>
+        <v>42156</v>
       </c>
       <c r="BH6" s="135"/>
       <c r="BI6" s="135"/>
@@ -5184,15 +4942,15 @@
       <c r="BN16" s="115"/>
     </row>
     <row r="17" spans="1:66" s="92" customFormat="1">
-      <c r="A17" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A17,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))),OFFSET(A17,-1,0,1,1)&amp;".1",LEFT(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A17,-1,0,1,1),LEN(OFFSET(A17,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))-1)))+1)))</f>
+      <c r="A17" s="130" t="str">
+        <f t="shared" ref="A17:A22" ca="1" si="12">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A17,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))),OFFSET(A17,-1,0,1,1)&amp;".1",LEFT(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A17,-1,0,1,1),LEN(OFFSET(A17,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>1.8.1</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="77"/>
       <c r="F17" s="101"/>
       <c r="G17" s="89"/>
@@ -5257,15 +5015,15 @@
       <c r="BN17" s="112"/>
     </row>
     <row r="18" spans="1:66" s="92" customFormat="1">
-      <c r="A18" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A18,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2))),OFFSET(A18,-1,0,1,1)&amp;".1",LEFT(OFFSET(A18,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A18,-1,0,1,1),LEN(OFFSET(A18,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A18,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A18,-1,0,1,1),".","`",2))-1)))+1)))</f>
+      <c r="A18" s="130" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>1.8.2</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
       <c r="E18" s="77"/>
       <c r="F18" s="101"/>
       <c r="G18" s="89"/>
@@ -5330,15 +5088,15 @@
       <c r="BN18" s="112"/>
     </row>
     <row r="19" spans="1:66" s="92" customFormat="1">
-      <c r="A19" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A19,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",2))),OFFSET(A19,-1,0,1,1)&amp;".1",LEFT(OFFSET(A19,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A19,-1,0,1,1),LEN(OFFSET(A19,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A19,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A19,-1,0,1,1),".","`",2))-1)))+1)))</f>
+      <c r="A19" s="130" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>1.8.3</v>
       </c>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="77"/>
       <c r="F19" s="101"/>
       <c r="G19" s="89"/>
@@ -5403,15 +5161,15 @@
       <c r="BN19" s="112"/>
     </row>
     <row r="20" spans="1:66" s="92" customFormat="1">
-      <c r="A20" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A20,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2))),OFFSET(A20,-1,0,1,1)&amp;".1",LEFT(OFFSET(A20,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A20,-1,0,1,1),LEN(OFFSET(A20,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A20,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A20,-1,0,1,1),".","`",2))-1)))+1)))</f>
+      <c r="A20" s="130" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>1.8.4</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
       <c r="E20" s="77"/>
       <c r="F20" s="101"/>
       <c r="G20" s="89"/>
@@ -5476,15 +5234,15 @@
       <c r="BN20" s="112"/>
     </row>
     <row r="21" spans="1:66" s="92" customFormat="1">
-      <c r="A21" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A21,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))),OFFSET(A21,-1,0,1,1)&amp;".1",LEFT(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A21,-1,0,1,1),LEN(OFFSET(A21,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A21,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A21,-1,0,1,1),".","`",2))-1)))+1)))</f>
+      <c r="A21" s="130" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>1.8.5</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="77"/>
       <c r="F21" s="101"/>
       <c r="G21" s="89"/>
@@ -5549,15 +5307,15 @@
       <c r="BN21" s="112"/>
     </row>
     <row r="22" spans="1:66" s="92" customFormat="1">
-      <c r="A22" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A22,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2))),OFFSET(A22,-1,0,1,1)&amp;".1",LEFT(OFFSET(A22,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A22,-1,0,1,1),LEN(OFFSET(A22,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A22,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A22,-1,0,1,1),".","`",2))-1)))+1)))</f>
+      <c r="A22" s="130" t="str">
+        <f t="shared" ca="1" si="12"/>
         <v>1.8.6</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
       <c r="E22" s="77"/>
       <c r="F22" s="101"/>
       <c r="G22" s="89"/>
@@ -5698,7 +5456,7 @@
     </row>
     <row r="24" spans="1:66" s="91" customFormat="1">
       <c r="A24" s="83" t="str">
-        <f t="shared" ref="A24:A36" ca="1" si="12">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A24,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))),OFFSET(A24,-1,0,1,1)&amp;".1",LEFT(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A24,-1,0,1,1),LEN(OFFSET(A24,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A24:A37" ca="1" si="13">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A24,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))),OFFSET(A24,-1,0,1,1)&amp;".1",LEFT(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A24,-1,0,1,1),LEN(OFFSET(A24,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B24" s="84" t="s">
@@ -5723,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="108">
-        <f t="shared" ref="I24:I36" si="13">IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
+        <f t="shared" ref="I24:I37" si="14">IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
         <v>3</v>
       </c>
       <c r="J24" s="81"/>
@@ -5785,15 +5543,15 @@
       <c r="BN24" s="115"/>
     </row>
     <row r="25" spans="1:66" s="92" customFormat="1">
-      <c r="A25" s="139" t="str">
+      <c r="A25" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="77"/>
       <c r="F25" s="101"/>
       <c r="G25" s="89"/>
@@ -5858,15 +5616,15 @@
       <c r="BN25" s="112"/>
     </row>
     <row r="26" spans="1:66" s="92" customFormat="1">
-      <c r="A26" s="139" t="str">
+      <c r="A26" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A26,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))),OFFSET(A26,-1,0,1,1)&amp;".1",LEFT(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A26,-1,0,1,1),LEN(OFFSET(A26,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="142"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="77"/>
       <c r="F26" s="101"/>
       <c r="G26" s="89"/>
@@ -5931,15 +5689,15 @@
       <c r="BN26" s="112"/>
     </row>
     <row r="27" spans="1:66" s="92" customFormat="1">
-      <c r="A27" s="139" t="str">
+      <c r="A27" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))),OFFSET(A27,-1,0,1,1)&amp;".1",LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A27,-1,0,1,1),LEN(OFFSET(A27,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
       <c r="E27" s="77"/>
       <c r="F27" s="101"/>
       <c r="G27" s="89"/>
@@ -6004,15 +5762,15 @@
       <c r="BN27" s="112"/>
     </row>
     <row r="28" spans="1:66" s="92" customFormat="1">
-      <c r="A28" s="139" t="str">
+      <c r="A28" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.4</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
       <c r="E28" s="77"/>
       <c r="F28" s="101"/>
       <c r="G28" s="89"/>
@@ -6076,36 +5834,21 @@
       <c r="BM28" s="81"/>
       <c r="BN28" s="112"/>
     </row>
-    <row r="29" spans="1:66" s="91" customFormat="1">
-      <c r="A29" s="83" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.2</v>
-      </c>
-      <c r="B29" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="87">
-        <f>F24+1</f>
-        <v>42100</v>
-      </c>
-      <c r="F29" s="88">
-        <f t="shared" ref="F29:F33" si="14">IF(G29=0,E29,E29+G29-1)</f>
-        <v>42102</v>
-      </c>
-      <c r="G29" s="111">
-        <v>3</v>
-      </c>
-      <c r="H29" s="90">
-        <v>1</v>
-      </c>
-      <c r="I29" s="108">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
+    <row r="29" spans="1:66" s="92" customFormat="1">
+      <c r="A29" s="130" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))),OFFSET(A29,-1,0,1,1)&amp;".1",LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A29,-1,0,1,1),LEN(OFFSET(A29,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>2.1.5</v>
+      </c>
+      <c r="B29" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="81"/>
       <c r="K29" s="81"/>
       <c r="L29" s="81"/>
@@ -6162,23 +5905,38 @@
       <c r="BK29" s="81"/>
       <c r="BL29" s="81"/>
       <c r="BM29" s="81"/>
-      <c r="BN29" s="115"/>
-    </row>
-    <row r="30" spans="1:66" s="92" customFormat="1">
-      <c r="A30" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A30,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))),OFFSET(A30,-1,0,1,1)&amp;".1",LEFT(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A30,-1,0,1,1),LEN(OFFSET(A30,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A30,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A30,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
-      </c>
-      <c r="B30" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="89"/>
+      <c r="BN29" s="112"/>
+    </row>
+    <row r="30" spans="1:66" s="91" customFormat="1">
+      <c r="A30" s="83" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.2</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="87">
+        <f>F24+1</f>
+        <v>42100</v>
+      </c>
+      <c r="F30" s="88">
+        <f t="shared" ref="F30:F34" si="15">IF(G30=0,E30,E30+G30-1)</f>
+        <v>42102</v>
+      </c>
+      <c r="G30" s="111">
+        <v>3</v>
+      </c>
+      <c r="H30" s="90">
+        <v>1</v>
+      </c>
+      <c r="I30" s="108">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
       <c r="L30" s="81"/>
@@ -6235,18 +5993,18 @@
       <c r="BK30" s="81"/>
       <c r="BL30" s="81"/>
       <c r="BM30" s="81"/>
-      <c r="BN30" s="112"/>
+      <c r="BN30" s="115"/>
     </row>
     <row r="31" spans="1:66" s="92" customFormat="1">
-      <c r="A31" s="139" t="str">
+      <c r="A31" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>2.2.2</v>
-      </c>
-      <c r="B31" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
+        <v>2.2.1</v>
+      </c>
+      <c r="B31" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
       <c r="E31" s="77"/>
       <c r="F31" s="101"/>
       <c r="G31" s="89"/>
@@ -6311,15 +6069,15 @@
       <c r="BN31" s="112"/>
     </row>
     <row r="32" spans="1:66" s="92" customFormat="1">
-      <c r="A32" s="139" t="str">
+      <c r="A32" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>2.2.3</v>
-      </c>
-      <c r="B32" s="140" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="142"/>
+        <v>2.2.2</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="77"/>
       <c r="F32" s="101"/>
       <c r="G32" s="89"/>
@@ -6383,34 +6141,21 @@
       <c r="BM32" s="81"/>
       <c r="BN32" s="112"/>
     </row>
-    <row r="33" spans="1:66" s="91" customFormat="1" ht="22">
-      <c r="A33" s="83" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.3</v>
-      </c>
-      <c r="B33" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87">
-        <f>F29+1</f>
-        <v>42103</v>
-      </c>
-      <c r="F33" s="88">
-        <f t="shared" si="14"/>
-        <v>42116</v>
-      </c>
-      <c r="G33" s="111">
-        <v>14</v>
-      </c>
-      <c r="H33" s="90">
-        <v>0.25</v>
-      </c>
-      <c r="I33" s="108">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
+    <row r="33" spans="1:66" s="92" customFormat="1">
+      <c r="A33" s="130" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>2.2.3</v>
+      </c>
+      <c r="B33" s="131" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="89"/>
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
@@ -6467,23 +6212,36 @@
       <c r="BK33" s="81"/>
       <c r="BL33" s="81"/>
       <c r="BM33" s="81"/>
-      <c r="BN33" s="115"/>
-    </row>
-    <row r="34" spans="1:66" s="92" customFormat="1">
-      <c r="A34" s="139" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A34,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))),OFFSET(A34,-1,0,1,1)&amp;".1",LEFT(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A34,-1,0,1,1),LEN(OFFSET(A34,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A34,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A34,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>2.3.1</v>
-      </c>
-      <c r="B34" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="89"/>
+      <c r="BN33" s="112"/>
+    </row>
+    <row r="34" spans="1:66" s="91" customFormat="1" ht="22">
+      <c r="A34" s="83" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.3</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87">
+        <f>F30+1</f>
+        <v>42103</v>
+      </c>
+      <c r="F34" s="88">
+        <f t="shared" si="15"/>
+        <v>42116</v>
+      </c>
+      <c r="G34" s="111">
+        <v>14</v>
+      </c>
+      <c r="H34" s="90">
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="108">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
       <c r="J34" s="81"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
@@ -6540,18 +6298,18 @@
       <c r="BK34" s="81"/>
       <c r="BL34" s="81"/>
       <c r="BM34" s="81"/>
-      <c r="BN34" s="112"/>
+      <c r="BN34" s="115"/>
     </row>
     <row r="35" spans="1:66" s="92" customFormat="1">
-      <c r="A35" s="139" t="str">
+      <c r="A35" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))),OFFSET(A35,-1,0,1,1)&amp;".1",LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A35,-1,0,1,1),LEN(OFFSET(A35,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>2.3.2</v>
-      </c>
-      <c r="B35" s="140" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="141"/>
-      <c r="D35" s="142"/>
+        <v>2.3.1</v>
+      </c>
+      <c r="B35" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="132"/>
+      <c r="D35" s="133"/>
       <c r="E35" s="77"/>
       <c r="F35" s="101"/>
       <c r="G35" s="89"/>
@@ -6615,36 +6373,21 @@
       <c r="BM35" s="81"/>
       <c r="BN35" s="112"/>
     </row>
-    <row r="36" spans="1:66" s="91" customFormat="1" ht="22">
-      <c r="A36" s="83" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.4</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E36" s="87">
-        <f>F33+1</f>
-        <v>42117</v>
-      </c>
-      <c r="F36" s="88">
-        <f>F16</f>
-        <v>42156</v>
-      </c>
-      <c r="G36" s="111">
-        <v>1</v>
-      </c>
-      <c r="H36" s="90">
-        <v>0.15</v>
-      </c>
-      <c r="I36" s="108">
-        <f t="shared" si="13"/>
-        <v>28</v>
-      </c>
+    <row r="36" spans="1:66" s="92" customFormat="1">
+      <c r="A36" s="130" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A36,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))),OFFSET(A36,-1,0,1,1)&amp;".1",LEFT(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A36,-1,0,1,1),LEN(OFFSET(A36,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>2.3.2</v>
+      </c>
+      <c r="B36" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="132"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="81"/>
       <c r="K36" s="81"/>
       <c r="L36" s="81"/>
@@ -6701,23 +6444,38 @@
       <c r="BK36" s="81"/>
       <c r="BL36" s="81"/>
       <c r="BM36" s="81"/>
-      <c r="BN36" s="115"/>
-    </row>
-    <row r="37" spans="1:66" s="82" customFormat="1" ht="22">
-      <c r="A37" s="14" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A37,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A37,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A37,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A37,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="78"/>
+      <c r="BN36" s="112"/>
+    </row>
+    <row r="37" spans="1:66" s="91" customFormat="1" ht="22">
+      <c r="A37" s="83" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.4</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="87">
+        <f>F34+1</f>
+        <v>42117</v>
+      </c>
+      <c r="F37" s="88">
+        <f>F16</f>
+        <v>42156</v>
+      </c>
+      <c r="G37" s="111">
+        <v>1</v>
+      </c>
+      <c r="H37" s="90">
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="108">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
       <c r="J37" s="81"/>
       <c r="K37" s="81"/>
       <c r="L37" s="81"/>
@@ -6774,38 +6532,23 @@
       <c r="BK37" s="81"/>
       <c r="BL37" s="81"/>
       <c r="BM37" s="81"/>
-      <c r="BN37" s="114"/>
-    </row>
-    <row r="38" spans="1:66" s="91" customFormat="1">
-      <c r="A38" s="83" t="str">
-        <f t="shared" ref="A38:A46" ca="1" si="15">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),OFFSET(A38,-1,0,1,1)&amp;".1",LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A38,-1,0,1,1),LEN(OFFSET(A38,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B38" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87">
-        <f>$E$4</f>
-        <v>42088</v>
-      </c>
-      <c r="F38" s="88">
-        <f>IF(G38=0,E38,E38+G38-1)</f>
-        <v>42095</v>
-      </c>
-      <c r="G38" s="111">
-        <v>8</v>
-      </c>
-      <c r="H38" s="90">
-        <v>1</v>
-      </c>
-      <c r="I38" s="108">
-        <f t="shared" ref="I38:I39" si="16">IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
-        <v>6</v>
-      </c>
+      <c r="BN37" s="115"/>
+    </row>
+    <row r="38" spans="1:66" s="82" customFormat="1" ht="22">
+      <c r="A38" s="14" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A38,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="75"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="81"/>
       <c r="K38" s="81"/>
       <c r="L38" s="81"/>
@@ -6862,37 +6605,37 @@
       <c r="BK38" s="81"/>
       <c r="BL38" s="81"/>
       <c r="BM38" s="81"/>
-      <c r="BN38" s="115"/>
+      <c r="BN38" s="114"/>
     </row>
     <row r="39" spans="1:66" s="91" customFormat="1">
       <c r="A39" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.2</v>
+        <f t="shared" ref="A39:A47" ca="1" si="16">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),OFFSET(A39,-1,0,1,1)&amp;".1",LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A39,-1,0,1,1),LEN(OFFSET(A39,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
       </c>
       <c r="B39" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="138" t="s">
-        <v>178</v>
+        <v>168</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>177</v>
       </c>
       <c r="D39" s="86"/>
       <c r="E39" s="87">
-        <f>F38+1</f>
-        <v>42096</v>
+        <f>$E$4</f>
+        <v>42088</v>
       </c>
       <c r="F39" s="88">
-        <f t="shared" ref="F39" si="17">IF(G39=0,E39,E39+G39-1)</f>
-        <v>42109</v>
+        <f>IF(G39=0,E39,E39+G39-1)</f>
+        <v>42095</v>
       </c>
       <c r="G39" s="111">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H39" s="90">
         <v>1</v>
       </c>
       <c r="I39" s="108">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" ref="I39:I40" si="17">IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
+        <v>6</v>
       </c>
       <c r="J39" s="81"/>
       <c r="K39" s="81"/>
@@ -6954,32 +6697,33 @@
     </row>
     <row r="40" spans="1:66" s="91" customFormat="1">
       <c r="A40" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.2</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="129" t="s">
         <v>178</v>
       </c>
       <c r="D40" s="86"/>
       <c r="E40" s="87">
-        <f t="shared" ref="E40:E45" si="18">F39+1</f>
-        <v>42110</v>
+        <f>F39+1</f>
+        <v>42096</v>
       </c>
       <c r="F40" s="88">
-        <f t="shared" ref="F40:F41" si="19">IF(G40=0,E40,E40+G40-1)</f>
-        <v>42116</v>
+        <f t="shared" ref="F40" si="18">IF(G40=0,E40,E40+G40-1)</f>
+        <v>42109</v>
       </c>
       <c r="G40" s="111">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H40" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="108">
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="J40" s="81"/>
       <c r="K40" s="81"/>
@@ -7041,23 +6785,23 @@
     </row>
     <row r="41" spans="1:66" s="91" customFormat="1">
       <c r="A41" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.4</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.3</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="129" t="s">
         <v>178</v>
       </c>
       <c r="D41" s="86"/>
       <c r="E41" s="87">
-        <f t="shared" si="18"/>
-        <v>42117</v>
+        <f t="shared" ref="E41:E46" si="19">F40+1</f>
+        <v>42110</v>
       </c>
       <c r="F41" s="88">
-        <f t="shared" si="19"/>
-        <v>42123</v>
+        <f t="shared" ref="F41:F42" si="20">IF(G41=0,E41,E41+G41-1)</f>
+        <v>42116</v>
       </c>
       <c r="G41" s="111">
         <v>7</v>
@@ -7066,8 +6810,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="108">
-        <f t="shared" ref="I41" si="20">IF(OR(F41=0,E41=0),0,NETWORKDAYS(E41,F41))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41" s="81"/>
       <c r="K41" s="81"/>
@@ -7129,23 +6872,23 @@
     </row>
     <row r="42" spans="1:66" s="91" customFormat="1">
       <c r="A42" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.5</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.4</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="129" t="s">
         <v>178</v>
       </c>
       <c r="D42" s="86"/>
       <c r="E42" s="87">
-        <f t="shared" si="18"/>
-        <v>42124</v>
+        <f t="shared" si="19"/>
+        <v>42117</v>
       </c>
       <c r="F42" s="88">
-        <f t="shared" ref="F42:F45" si="21">IF(G42=0,E42,E42+G42-1)</f>
-        <v>42130</v>
+        <f t="shared" si="20"/>
+        <v>42123</v>
       </c>
       <c r="G42" s="111">
         <v>7</v>
@@ -7154,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="108">
-        <f t="shared" ref="I42:I45" si="22">IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
+        <f t="shared" ref="I42" si="21">IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
         <v>5</v>
       </c>
       <c r="J42" s="81"/>
@@ -7217,23 +6960,23 @@
     </row>
     <row r="43" spans="1:66" s="91" customFormat="1">
       <c r="A43" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.6</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.5</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="85" t="s">
         <v>178</v>
       </c>
       <c r="D43" s="86"/>
       <c r="E43" s="87">
-        <f t="shared" si="18"/>
-        <v>42131</v>
+        <f t="shared" si="19"/>
+        <v>42124</v>
       </c>
       <c r="F43" s="88">
-        <f t="shared" si="21"/>
-        <v>42137</v>
+        <f t="shared" ref="F43:F46" si="22">IF(G43=0,E43,E43+G43-1)</f>
+        <v>42130</v>
       </c>
       <c r="G43" s="111">
         <v>7</v>
@@ -7242,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="108">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="I43:I46" si="23">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
         <v>5</v>
       </c>
       <c r="J43" s="81"/>
@@ -7305,23 +7048,23 @@
     </row>
     <row r="44" spans="1:66" s="91" customFormat="1">
       <c r="A44" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.7</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.6</v>
       </c>
       <c r="B44" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="85" t="s">
         <v>178</v>
       </c>
       <c r="D44" s="86"/>
       <c r="E44" s="87">
-        <f t="shared" si="18"/>
-        <v>42138</v>
+        <f t="shared" si="19"/>
+        <v>42131</v>
       </c>
       <c r="F44" s="88">
-        <f t="shared" si="21"/>
-        <v>42144</v>
+        <f t="shared" si="22"/>
+        <v>42137</v>
       </c>
       <c r="G44" s="111">
         <v>7</v>
@@ -7330,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J44" s="81"/>
@@ -7393,23 +7136,23 @@
     </row>
     <row r="45" spans="1:66" s="91" customFormat="1">
       <c r="A45" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.8</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.7</v>
       </c>
       <c r="B45" s="84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="85" t="s">
         <v>178</v>
       </c>
       <c r="D45" s="86"/>
       <c r="E45" s="87">
-        <f t="shared" si="18"/>
-        <v>42145</v>
+        <f t="shared" si="19"/>
+        <v>42138</v>
       </c>
       <c r="F45" s="88">
-        <f t="shared" si="21"/>
-        <v>42151</v>
+        <f t="shared" si="22"/>
+        <v>42144</v>
       </c>
       <c r="G45" s="111">
         <v>7</v>
@@ -7418,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J45" s="81"/>
@@ -7481,33 +7224,33 @@
     </row>
     <row r="46" spans="1:66" s="91" customFormat="1">
       <c r="A46" s="83" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.9</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.8</v>
       </c>
       <c r="B46" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C46" s="85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D46" s="86"/>
       <c r="E46" s="87">
-        <f>F40+1</f>
-        <v>42117</v>
+        <f t="shared" si="19"/>
+        <v>42145</v>
       </c>
       <c r="F46" s="88">
-        <f t="shared" ref="F46" si="23">IF(G46=0,E46,E46+G46-1)</f>
-        <v>42150</v>
+        <f t="shared" si="22"/>
+        <v>42151</v>
       </c>
       <c r="G46" s="111">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H46" s="90">
         <v>0</v>
       </c>
       <c r="I46" s="108">
-        <f t="shared" ref="I46" si="24">IF(OR(F46=0,E46=0),0,NETWORKDAYS(E46,F46))</f>
-        <v>24</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="J46" s="81"/>
       <c r="K46" s="81"/>
@@ -7567,21 +7310,36 @@
       <c r="BM46" s="81"/>
       <c r="BN46" s="115"/>
     </row>
-    <row r="47" spans="1:66" s="82" customFormat="1" ht="22">
-      <c r="A47" s="14" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A47,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A47,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A47,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A47,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="78"/>
+    <row r="47" spans="1:66" s="91" customFormat="1">
+      <c r="A47" s="83" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.9</v>
+      </c>
+      <c r="B47" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="86"/>
+      <c r="E47" s="87">
+        <f>F41+1</f>
+        <v>42117</v>
+      </c>
+      <c r="F47" s="88">
+        <f t="shared" ref="F47" si="24">IF(G47=0,E47,E47+G47-1)</f>
+        <v>42150</v>
+      </c>
+      <c r="G47" s="111">
+        <v>34</v>
+      </c>
+      <c r="H47" s="90">
+        <v>0</v>
+      </c>
+      <c r="I47" s="108">
+        <f t="shared" ref="I47" si="25">IF(OR(F47=0,E47=0),0,NETWORKDAYS(E47,F47))</f>
+        <v>24</v>
+      </c>
       <c r="J47" s="81"/>
       <c r="K47" s="81"/>
       <c r="L47" s="81"/>
@@ -7638,37 +7396,23 @@
       <c r="BK47" s="81"/>
       <c r="BL47" s="81"/>
       <c r="BM47" s="81"/>
-      <c r="BN47" s="114"/>
-    </row>
-    <row r="48" spans="1:66" s="91" customFormat="1">
-      <c r="A48" s="83" t="str">
-        <f t="shared" ref="A48:A55" ca="1" si="25">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A48,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))),OFFSET(A48,-1,0,1,1)&amp;".1",LEFT(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A48,-1,0,1,1),LEN(OFFSET(A48,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B48" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="87">
-        <f>$E$4</f>
-        <v>42088</v>
-      </c>
-      <c r="F48" s="88">
-        <f>IF(G48=0,E48,E48+G48-1)</f>
-        <v>42095</v>
-      </c>
-      <c r="G48" s="111">
-        <v>8</v>
-      </c>
-      <c r="H48" s="90">
-        <v>1</v>
-      </c>
-      <c r="I48" s="108">
-        <v>1</v>
-      </c>
+      <c r="BN47" s="115"/>
+    </row>
+    <row r="48" spans="1:66" s="82" customFormat="1" ht="22">
+      <c r="A48" s="14" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A48,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A48,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="81"/>
       <c r="K48" s="81"/>
       <c r="L48" s="81"/>
@@ -7725,30 +7469,30 @@
       <c r="BK48" s="81"/>
       <c r="BL48" s="81"/>
       <c r="BM48" s="81"/>
-      <c r="BN48" s="115"/>
+      <c r="BN48" s="114"/>
     </row>
     <row r="49" spans="1:66" s="91" customFormat="1">
       <c r="A49" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.2</v>
+        <f t="shared" ref="A49:A56" ca="1" si="26">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A49,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))),OFFSET(A49,-1,0,1,1)&amp;".1",LEFT(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A49,-1,0,1,1),LEN(OFFSET(A49,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
       </c>
       <c r="B49" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D49" s="86"/>
       <c r="E49" s="87">
-        <f>F48+1</f>
-        <v>42096</v>
+        <f>$E$4</f>
+        <v>42088</v>
       </c>
       <c r="F49" s="88">
-        <f t="shared" ref="F49:F55" si="26">IF(G49=0,E49,E49+G49-1)</f>
-        <v>42109</v>
+        <f>IF(G49=0,E49,E49+G49-1)</f>
+        <v>42095</v>
       </c>
       <c r="G49" s="111">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H49" s="90">
         <v>1</v>
@@ -7816,29 +7560,29 @@
     </row>
     <row r="50" spans="1:66" s="91" customFormat="1">
       <c r="A50" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.3</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>4.2</v>
       </c>
       <c r="B50" s="84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D50" s="86"/>
       <c r="E50" s="87">
-        <f t="shared" ref="E50:E55" si="27">F49+1</f>
-        <v>42110</v>
+        <f>F49+1</f>
+        <v>42096</v>
       </c>
       <c r="F50" s="88">
-        <f t="shared" si="26"/>
-        <v>42116</v>
+        <f t="shared" ref="F50:F56" si="27">IF(G50=0,E50,E50+G50-1)</f>
+        <v>42109</v>
       </c>
       <c r="G50" s="111">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H50" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="108">
         <v>1</v>
@@ -7903,23 +7647,23 @@
     </row>
     <row r="51" spans="1:66" s="91" customFormat="1">
       <c r="A51" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.4</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>4.3</v>
       </c>
       <c r="B51" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D51" s="86"/>
       <c r="E51" s="87">
+        <f t="shared" ref="E51:E56" si="28">F50+1</f>
+        <v>42110</v>
+      </c>
+      <c r="F51" s="88">
         <f t="shared" si="27"/>
-        <v>42117</v>
-      </c>
-      <c r="F51" s="88">
-        <f t="shared" si="26"/>
-        <v>42123</v>
+        <v>42116</v>
       </c>
       <c r="G51" s="111">
         <v>7</v>
@@ -7990,23 +7734,23 @@
     </row>
     <row r="52" spans="1:66" s="91" customFormat="1">
       <c r="A52" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.5</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>4.4</v>
       </c>
       <c r="B52" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="86"/>
       <c r="E52" s="87">
+        <f t="shared" si="28"/>
+        <v>42117</v>
+      </c>
+      <c r="F52" s="88">
         <f t="shared" si="27"/>
-        <v>42124</v>
-      </c>
-      <c r="F52" s="88">
-        <f t="shared" si="26"/>
-        <v>42130</v>
+        <v>42123</v>
       </c>
       <c r="G52" s="111">
         <v>7</v>
@@ -8077,23 +7821,23 @@
     </row>
     <row r="53" spans="1:66" s="91" customFormat="1">
       <c r="A53" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.6</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>4.5</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D53" s="86"/>
       <c r="E53" s="87">
+        <f t="shared" si="28"/>
+        <v>42124</v>
+      </c>
+      <c r="F53" s="88">
         <f t="shared" si="27"/>
-        <v>42131</v>
-      </c>
-      <c r="F53" s="88">
-        <f t="shared" si="26"/>
-        <v>42137</v>
+        <v>42130</v>
       </c>
       <c r="G53" s="111">
         <v>7</v>
@@ -8164,23 +7908,23 @@
     </row>
     <row r="54" spans="1:66" s="91" customFormat="1">
       <c r="A54" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.7</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>4.6</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D54" s="86"/>
       <c r="E54" s="87">
+        <f t="shared" si="28"/>
+        <v>42131</v>
+      </c>
+      <c r="F54" s="88">
         <f t="shared" si="27"/>
-        <v>42138</v>
-      </c>
-      <c r="F54" s="88">
-        <f t="shared" si="26"/>
-        <v>42144</v>
+        <v>42137</v>
       </c>
       <c r="G54" s="111">
         <v>7</v>
@@ -8251,26 +7995,26 @@
     </row>
     <row r="55" spans="1:66" s="91" customFormat="1">
       <c r="A55" s="83" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v>4.8</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>4.7</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="85" t="s">
         <v>184</v>
       </c>
       <c r="D55" s="86"/>
       <c r="E55" s="87">
+        <f t="shared" si="28"/>
+        <v>42138</v>
+      </c>
+      <c r="F55" s="88">
         <f t="shared" si="27"/>
-        <v>42145</v>
-      </c>
-      <c r="F55" s="88">
-        <f t="shared" si="26"/>
-        <v>42156</v>
+        <v>42144</v>
       </c>
       <c r="G55" s="111">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H55" s="90">
         <v>0</v>
@@ -8336,11 +8080,95 @@
       <c r="BM55" s="81"/>
       <c r="BN55" s="115"/>
     </row>
-    <row r="64" spans="1:66" s="96" customFormat="1">
-      <c r="BN64" s="116"/>
-    </row>
-    <row r="65" spans="1:66" s="92" customFormat="1">
-      <c r="BN65" s="112"/>
+    <row r="56" spans="1:66" s="91" customFormat="1">
+      <c r="A56" s="83" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>4.8</v>
+      </c>
+      <c r="B56" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="86"/>
+      <c r="E56" s="87">
+        <f t="shared" si="28"/>
+        <v>42145</v>
+      </c>
+      <c r="F56" s="88">
+        <f t="shared" si="27"/>
+        <v>42156</v>
+      </c>
+      <c r="G56" s="111">
+        <v>12</v>
+      </c>
+      <c r="H56" s="90">
+        <v>0</v>
+      </c>
+      <c r="I56" s="108">
+        <v>1</v>
+      </c>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="81"/>
+      <c r="T56" s="81"/>
+      <c r="U56" s="81"/>
+      <c r="V56" s="81"/>
+      <c r="W56" s="81"/>
+      <c r="X56" s="81"/>
+      <c r="Y56" s="81"/>
+      <c r="Z56" s="81"/>
+      <c r="AA56" s="81"/>
+      <c r="AB56" s="81"/>
+      <c r="AC56" s="81"/>
+      <c r="AD56" s="81"/>
+      <c r="AE56" s="81"/>
+      <c r="AF56" s="81"/>
+      <c r="AG56" s="81"/>
+      <c r="AH56" s="81"/>
+      <c r="AI56" s="81"/>
+      <c r="AJ56" s="81"/>
+      <c r="AK56" s="81"/>
+      <c r="AL56" s="81"/>
+      <c r="AM56" s="81"/>
+      <c r="AN56" s="81"/>
+      <c r="AO56" s="81"/>
+      <c r="AP56" s="81"/>
+      <c r="AQ56" s="81"/>
+      <c r="AR56" s="81"/>
+      <c r="AS56" s="81"/>
+      <c r="AT56" s="81"/>
+      <c r="AU56" s="81"/>
+      <c r="AV56" s="81"/>
+      <c r="AW56" s="81"/>
+      <c r="AX56" s="81"/>
+      <c r="AY56" s="81"/>
+      <c r="AZ56" s="81"/>
+      <c r="BA56" s="81"/>
+      <c r="BB56" s="81"/>
+      <c r="BC56" s="81"/>
+      <c r="BD56" s="81"/>
+      <c r="BE56" s="81"/>
+      <c r="BF56" s="81"/>
+      <c r="BG56" s="81"/>
+      <c r="BH56" s="81"/>
+      <c r="BI56" s="81"/>
+      <c r="BJ56" s="81"/>
+      <c r="BK56" s="81"/>
+      <c r="BL56" s="81"/>
+      <c r="BM56" s="81"/>
+      <c r="BN56" s="115"/>
+    </row>
+    <row r="65" spans="1:66" s="96" customFormat="1">
+      <c r="BN65" s="116"/>
     </row>
     <row r="66" spans="1:66" s="92" customFormat="1">
       <c r="BN66" s="112"/>
@@ -8352,87 +8180,20 @@
       <c r="BN68" s="112"/>
     </row>
     <row r="69" spans="1:66" s="92" customFormat="1">
-      <c r="A69" s="127" t="s">
+      <c r="BN69" s="112"/>
+    </row>
+    <row r="70" spans="1:66" s="92" customFormat="1">
+      <c r="A70" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="128"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="81"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="81"/>
-      <c r="N69" s="81"/>
-      <c r="O69" s="81"/>
-      <c r="P69" s="81"/>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
-      <c r="U69" s="81"/>
-      <c r="V69" s="81"/>
-      <c r="W69" s="81"/>
-      <c r="X69" s="81"/>
-      <c r="Y69" s="81"/>
-      <c r="Z69" s="81"/>
-      <c r="AA69" s="81"/>
-      <c r="AB69" s="81"/>
-      <c r="AC69" s="81"/>
-      <c r="AD69" s="81"/>
-      <c r="AE69" s="81"/>
-      <c r="AF69" s="81"/>
-      <c r="AG69" s="81"/>
-      <c r="AH69" s="81"/>
-      <c r="AI69" s="81"/>
-      <c r="AJ69" s="81"/>
-      <c r="AK69" s="81"/>
-      <c r="AL69" s="81"/>
-      <c r="AM69" s="81"/>
-      <c r="AN69" s="81"/>
-      <c r="AO69" s="81"/>
-      <c r="AP69" s="81"/>
-      <c r="AQ69" s="81"/>
-      <c r="AR69" s="81"/>
-      <c r="AS69" s="81"/>
-      <c r="AT69" s="81"/>
-      <c r="AU69" s="81"/>
-      <c r="AV69" s="81"/>
-      <c r="AW69" s="81"/>
-      <c r="AX69" s="81"/>
-      <c r="AY69" s="81"/>
-      <c r="AZ69" s="81"/>
-      <c r="BA69" s="81"/>
-      <c r="BB69" s="81"/>
-      <c r="BC69" s="81"/>
-      <c r="BD69" s="81"/>
-      <c r="BE69" s="81"/>
-      <c r="BF69" s="81"/>
-      <c r="BG69" s="81"/>
-      <c r="BH69" s="81"/>
-      <c r="BI69" s="81"/>
-      <c r="BJ69" s="81"/>
-      <c r="BK69" s="81"/>
-      <c r="BL69" s="81"/>
-      <c r="BM69" s="81"/>
-      <c r="BN69" s="112"/>
-    </row>
-    <row r="70" spans="1:66" s="92" customFormat="1">
-      <c r="A70" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="95"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="81"/>
       <c r="K70" s="81"/>
       <c r="L70" s="81"/>
@@ -8492,17 +8253,17 @@
       <c r="BN70" s="112"/>
     </row>
     <row r="71" spans="1:66" s="92" customFormat="1">
-      <c r="A71" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="98"/>
-      <c r="I71" s="98"/>
+      <c r="A71" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
       <c r="J71" s="81"/>
       <c r="K71" s="81"/>
       <c r="L71" s="81"/>
@@ -8562,20 +8323,17 @@
       <c r="BN71" s="112"/>
     </row>
     <row r="72" spans="1:66" s="92" customFormat="1">
-      <c r="A72" s="83" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A72,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A72,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A72,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A72,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A72,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B72" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="101"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="102"/>
-      <c r="I72" s="89"/>
+      <c r="A72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
       <c r="J72" s="81"/>
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
@@ -8636,13 +8394,13 @@
     </row>
     <row r="73" spans="1:66" s="92" customFormat="1">
       <c r="A73" s="83" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A73,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))),OFFSET(A73,-1,0,1,1)&amp;".1",LEFT(OFFSET(A73,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A73,-1,0,1,1),LEN(OFFSET(A73,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A73,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="103"/>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A73,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A73,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A73,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B73" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="99"/>
       <c r="D73" s="100"/>
       <c r="E73" s="77"/>
       <c r="F73" s="101"/>
@@ -8709,11 +8467,11 @@
     </row>
     <row r="74" spans="1:66" s="92" customFormat="1">
       <c r="A74" s="83" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A74,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))),OFFSET(A74,-1,0,1,1)&amp;".1",LEFT(OFFSET(A74,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A74,-1,0,1,1),LEN(OFFSET(A74,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A74,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B74" s="104" t="s">
-        <v>24</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A74,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))),OFFSET(A74,-1,0,1,1)&amp;".1",LEFT(OFFSET(A74,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A74,-1,0,1,1),LEN(OFFSET(A74,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A74,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B74" s="103" t="s">
+        <v>14</v>
       </c>
       <c r="C74" s="103"/>
       <c r="D74" s="100"/>
@@ -8780,13 +8538,13 @@
       <c r="BM74" s="81"/>
       <c r="BN74" s="112"/>
     </row>
-    <row r="75" spans="1:66">
+    <row r="75" spans="1:66" s="92" customFormat="1">
       <c r="A75" s="83" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A75,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))),OFFSET(A75,-1,0,1,1)&amp;".1",LEFT(OFFSET(A75,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A75,-1,0,1,1),LEN(OFFSET(A75,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A75,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A75,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))),OFFSET(A75,-1,0,1,1)&amp;".1",LEFT(OFFSET(A75,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A75,-1,0,1,1),LEN(OFFSET(A75,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A75,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C75" s="103"/>
       <c r="D75" s="100"/>
@@ -8851,19 +8609,23 @@
       <c r="BK75" s="81"/>
       <c r="BL75" s="81"/>
       <c r="BM75" s="81"/>
+      <c r="BN75" s="112"/>
     </row>
     <row r="76" spans="1:66">
-      <c r="A76" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
+      <c r="A76" s="83" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A76,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))),OFFSET(A76,-1,0,1,1)&amp;".1",LEFT(OFFSET(A76,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A76,-1,0,1,1),LEN(OFFSET(A76,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A76,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B76" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="103"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="89"/>
       <c r="J76" s="81"/>
       <c r="K76" s="81"/>
       <c r="L76" s="81"/>
@@ -8922,32 +8684,17 @@
       <c r="BM76" s="81"/>
     </row>
     <row r="77" spans="1:66">
-      <c r="A77" s="83" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A77,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A77,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A77,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A77,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A77,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="110">
-        <f>MIN(E78:E80)</f>
-        <v>42064</v>
-      </c>
-      <c r="F77" s="110">
-        <f>MAX(F78:F80)</f>
-        <v>42064</v>
-      </c>
-      <c r="G77" s="89">
-        <f>IF(OR(F77=0,E77=0),0,F77-E77+1)</f>
-        <v>1</v>
-      </c>
-      <c r="H77" s="109"/>
-      <c r="I77" s="108">
-        <f>IF(OR(F77=0,E77=0),0,NETWORKDAYS(E77,F77))</f>
-        <v>0</v>
-      </c>
+      <c r="A77" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
       <c r="J77" s="81"/>
       <c r="K77" s="81"/>
       <c r="L77" s="81"/>
@@ -9006,24 +8753,32 @@
       <c r="BM77" s="81"/>
     </row>
     <row r="78" spans="1:66">
-      <c r="A78" s="105" t="s">
-        <v>26</v>
+      <c r="A78" s="83" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A78,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A78,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A78,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A78,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A78,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="106"/>
-      <c r="E78" s="107">
-        <f>F78</f>
+      <c r="E78" s="110">
+        <f>MIN(E79:E81)</f>
         <v>42064</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="110">
+        <f>MAX(F79:F81)</f>
         <v>42064</v>
       </c>
-      <c r="G78" s="89"/>
+      <c r="G78" s="89">
+        <f>IF(OR(F78=0,E78=0),0,F78-E78+1)</f>
+        <v>1</v>
+      </c>
       <c r="H78" s="109"/>
-      <c r="I78" s="108"/>
+      <c r="I78" s="108">
+        <f>IF(OR(F78=0,E78=0),0,NETWORKDAYS(E78,F78))</f>
+        <v>0</v>
+      </c>
       <c r="J78" s="81"/>
       <c r="K78" s="81"/>
       <c r="L78" s="81"/>
@@ -9082,26 +8837,24 @@
       <c r="BM78" s="81"/>
     </row>
     <row r="79" spans="1:66">
-      <c r="A79" s="83" t="str">
-        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A79,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",1))),OFFSET(A79,-1,0,1,1)&amp;".1",LEFT(OFFSET(A79,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A79,-1,0,1,1),LEN(OFFSET(A79,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A79,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A79,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B79" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="103"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="88">
-        <f>IF(G79=0,E79,E79+G79-1)</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="111"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="108">
-        <f>IF(OR(F79=0,E79=0),0,NETWORKDAYS(E79,F79))</f>
-        <v>0</v>
-      </c>
+      <c r="A79" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="106"/>
+      <c r="E79" s="107">
+        <f>F79</f>
+        <v>42064</v>
+      </c>
+      <c r="F79" s="87">
+        <v>42064</v>
+      </c>
+      <c r="G79" s="89"/>
+      <c r="H79" s="109"/>
+      <c r="I79" s="108"/>
       <c r="J79" s="81"/>
       <c r="K79" s="81"/>
       <c r="L79" s="81"/>
@@ -9162,19 +8915,19 @@
     <row r="80" spans="1:66">
       <c r="A80" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A80,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))),OFFSET(A80,-1,0,1,1)&amp;".1",LEFT(OFFSET(A80,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A80,-1,0,1,1),LEN(OFFSET(A80,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A80,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="B80" s="103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C80" s="103"/>
       <c r="D80" s="86"/>
       <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89">
-        <f>IF(OR(F80=0,E80=0),0,F80-E80+1)</f>
+      <c r="F80" s="88">
+        <f>IF(G80=0,E80,E80+G80-1)</f>
         <v>0</v>
       </c>
+      <c r="G80" s="111"/>
       <c r="H80" s="90"/>
       <c r="I80" s="108">
         <f>IF(OR(F80=0,E80=0),0,NETWORKDAYS(E80,F80))</f>
@@ -9237,8 +8990,100 @@
       <c r="BL80" s="81"/>
       <c r="BM80" s="81"/>
     </row>
+    <row r="81" spans="1:65">
+      <c r="A81" s="83" t="str">
+        <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A81,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))),OFFSET(A81,-1,0,1,1)&amp;".1",LEFT(OFFSET(A81,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A81,-1,0,1,1),LEN(OFFSET(A81,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A81,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B81" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="103"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="89">
+        <f>IF(OR(F81=0,E81=0),0,F81-E81+1)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="90"/>
+      <c r="I81" s="108">
+        <f>IF(OR(F81=0,E81=0),0,NETWORKDAYS(E81,F81))</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="81"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="81"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="81"/>
+      <c r="X81" s="81"/>
+      <c r="Y81" s="81"/>
+      <c r="Z81" s="81"/>
+      <c r="AA81" s="81"/>
+      <c r="AB81" s="81"/>
+      <c r="AC81" s="81"/>
+      <c r="AD81" s="81"/>
+      <c r="AE81" s="81"/>
+      <c r="AF81" s="81"/>
+      <c r="AG81" s="81"/>
+      <c r="AH81" s="81"/>
+      <c r="AI81" s="81"/>
+      <c r="AJ81" s="81"/>
+      <c r="AK81" s="81"/>
+      <c r="AL81" s="81"/>
+      <c r="AM81" s="81"/>
+      <c r="AN81" s="81"/>
+      <c r="AO81" s="81"/>
+      <c r="AP81" s="81"/>
+      <c r="AQ81" s="81"/>
+      <c r="AR81" s="81"/>
+      <c r="AS81" s="81"/>
+      <c r="AT81" s="81"/>
+      <c r="AU81" s="81"/>
+      <c r="AV81" s="81"/>
+      <c r="AW81" s="81"/>
+      <c r="AX81" s="81"/>
+      <c r="AY81" s="81"/>
+      <c r="AZ81" s="81"/>
+      <c r="BA81" s="81"/>
+      <c r="BB81" s="81"/>
+      <c r="BC81" s="81"/>
+      <c r="BD81" s="81"/>
+      <c r="BE81" s="81"/>
+      <c r="BF81" s="81"/>
+      <c r="BG81" s="81"/>
+      <c r="BH81" s="81"/>
+      <c r="BI81" s="81"/>
+      <c r="BJ81" s="81"/>
+      <c r="BK81" s="81"/>
+      <c r="BL81" s="81"/>
+      <c r="BM81" s="81"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="BG6:BM6"/>
     <mergeCell ref="AL6:AR6"/>
@@ -9247,24 +9092,10 @@
     <mergeCell ref="AL5:AR5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="AZ6:BF6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H69:H80 H8:H16 H29 H33 H36:H55 H23:H24">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9278,20 +9109,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM7">
-    <cfRule type="expression" dxfId="28" priority="42">
+    <cfRule type="expression" dxfId="30" priority="45">
       <formula>AND(TODAY()&gt;=J4,TODAY()&lt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69:BM80 J8:BM16 J29:BM29 J33:BM33 J36:BM55 J23:BM24">
-    <cfRule type="expression" dxfId="27" priority="52">
+  <conditionalFormatting sqref="J70:BM81 J8:BM16 J30:BM30 J34:BM34 J37:BM56 J23:BM24">
+    <cfRule type="expression" dxfId="29" priority="55">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="70">
+    <cfRule type="expression" dxfId="28" priority="73">
       <formula>AND($E8&lt;K$4,$F8&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9305,15 +9136,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BM25">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>AND($E25&lt;K$4,$F25&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:H28">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9327,15 +9158,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:BM28">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>AND($E26&lt;K$4,$F26&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="dataBar" priority="28">
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9348,16 +9179,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:BM30">
-    <cfRule type="expression" dxfId="21" priority="29">
+  <conditionalFormatting sqref="J31:BM31">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>AND($E30&lt;K$4,$F30&gt;=J$4)</formula>
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>AND($E31&lt;K$4,$F31&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H35">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="H35:H36">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9370,16 +9201,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BM35">
-    <cfRule type="expression" dxfId="19" priority="26">
+  <conditionalFormatting sqref="J35:BM36">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
-      <formula>AND($E34&lt;K$4,$F34&gt;=J$4)</formula>
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>AND($E35&lt;K$4,$F35&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9393,15 +9224,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BM17">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>AND($E17&lt;K$4,$F17&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9415,15 +9246,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BM18">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>AND($E18&lt;K$4,$F18&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9437,15 +9268,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="14" priority="21">
       <formula>AND($E19&lt;K$4,$F19&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9459,15 +9290,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM20">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>AND($E20&lt;K$4,$F20&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9481,15 +9312,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BM21">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>AND($E21&lt;K$4,$F21&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9503,15 +9334,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:BM22">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND($E22&lt;K$4,$F22&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9524,16 +9355,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:BM31">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="J32:BM32">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND($E31&lt;K$4,$F31&gt;=J$4)</formula>
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>AND($E32&lt;K$4,$F32&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9546,12 +9377,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:BM32">
+  <conditionalFormatting sqref="J33:BM33">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>J$4=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND($E33&lt;K$4,$F33&gt;=J$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{223DEECC-353A-C34F-A1EA-5BF78F2107ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:BM29">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>J$4=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND($E32&lt;K$4,$F32&gt;=J$4)</formula>
+      <formula>AND($E29&lt;K$4,$F29&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
@@ -9574,7 +9427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H69:H80 H8:H16 H29 H33 H36:H55 H23:H24</xm:sqref>
+          <xm:sqref>H70:H81 H8:H16 H30 H34 H37:H56 H23:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0F64764A-F656-C94E-ACFA-21CE76C680AA}">
@@ -9619,7 +9472,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
+          <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6120096C-DE69-5645-98F8-F239A8E6FB8F}">
@@ -9634,7 +9487,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:H35</xm:sqref>
+          <xm:sqref>H35:H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C99C3697-392A-524D-874D-1A686FA651FC}">
@@ -9739,7 +9592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
+          <xm:sqref>H32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AD2B0E55-D248-D744-91EB-BBE15063B796}">
@@ -9754,7 +9607,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{223DEECC-353A-C34F-A1EA-5BF78F2107ED}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9998,10 +9866,10 @@
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3" s="27" customFormat="1" ht="15">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="142"/>
     </row>
     <row r="5" spans="1:3" s="27" customFormat="1">
       <c r="B5" s="39" t="s">
@@ -10040,10 +9908,10 @@
     </row>
     <row r="15" spans="1:3" s="48" customFormat="1"/>
     <row r="16" spans="1:3" ht="15">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="136"/>
+      <c r="B16" s="142"/>
     </row>
     <row r="17" spans="1:3" s="27" customFormat="1">
       <c r="B17" s="31" t="s">
@@ -10100,10 +9968,10 @@
       <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:3" ht="15">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="142"/>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="64" t="s">
@@ -10182,10 +10050,10 @@
     </row>
     <row r="46" spans="1:2" s="27" customFormat="1"/>
     <row r="47" spans="1:2" ht="15">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="136"/>
+      <c r="B47" s="142"/>
     </row>
     <row r="48" spans="1:2" ht="24">
       <c r="B48" s="54" t="s">
@@ -10282,10 +10150,10 @@
       <c r="B62" s="32"/>
     </row>
     <row r="63" spans="1:2" s="48" customFormat="1" ht="15">
-      <c r="A63" s="136" t="s">
+      <c r="A63" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="136"/>
+      <c r="B63" s="142"/>
     </row>
     <row r="64" spans="1:2" s="48" customFormat="1" ht="24">
       <c r="B64" s="117" t="s">
@@ -10296,10 +10164,10 @@
       <c r="B65" s="32"/>
     </row>
     <row r="66" spans="1:2" s="48" customFormat="1" ht="15">
-      <c r="A66" s="136" t="s">
+      <c r="A66" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="136"/>
+      <c r="B66" s="142"/>
     </row>
     <row r="67" spans="1:2" s="48" customFormat="1">
       <c r="B67" s="117" t="s">
@@ -10310,10 +10178,10 @@
       <c r="B68" s="36"/>
     </row>
     <row r="69" spans="1:2" s="27" customFormat="1" ht="15">
-      <c r="A69" s="136" t="s">
+      <c r="A69" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="136"/>
+      <c r="B69" s="142"/>
     </row>
     <row r="70" spans="1:2" s="48" customFormat="1">
       <c r="A70" s="13" t="s">

--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -2364,14 +2364,11 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2390,6 +2387,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2464,26 +2464,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -3400,8 +3381,8 @@
   <dimension ref="A1:BN81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3435,20 +3416,20 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="140"/>
+      <c r="F3" s="139"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3509,15 +3490,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="141">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="140">
         <v>42088</v>
       </c>
-      <c r="F4" s="141"/>
+      <c r="F4" s="140"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>42107</v>
@@ -3744,178 +3725,178 @@
       </c>
     </row>
     <row r="5" spans="1:66">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="23">
         <v>4</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="134" t="str">
+      <c r="J5" s="135" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134" t="str">
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134" t="str">
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134" t="str">
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134" t="str">
+      <c r="AF5" s="135"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="135" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134" t="str">
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="135"/>
+      <c r="AR5" s="135"/>
+      <c r="AS5" s="135" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134" t="str">
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="135"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="135"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="135"/>
+      <c r="AZ5" s="135" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134" t="str">
+      <c r="BA5" s="135"/>
+      <c r="BB5" s="135"/>
+      <c r="BC5" s="135"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="135"/>
+      <c r="BG5" s="135" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
+      <c r="BH5" s="135"/>
+      <c r="BI5" s="135"/>
+      <c r="BJ5" s="135"/>
+      <c r="BK5" s="135"/>
+      <c r="BL5" s="135"/>
+      <c r="BM5" s="135"/>
     </row>
     <row r="6" spans="1:66">
       <c r="B6" s="22"/>
-      <c r="J6" s="135">
+      <c r="J6" s="141">
         <f>J4</f>
         <v>42107</v>
       </c>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135">
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141">
         <f>Q4</f>
         <v>42114</v>
       </c>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141">
         <f>X4</f>
         <v>42121</v>
       </c>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135">
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141">
         <f>AE4</f>
         <v>42128</v>
       </c>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135">
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141">
         <f>AL4</f>
         <v>42135</v>
       </c>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="135"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="135"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="135">
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141"/>
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="141">
         <f>AS4</f>
         <v>42142</v>
       </c>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
-      <c r="AZ6" s="135">
+      <c r="AT6" s="141"/>
+      <c r="AU6" s="141"/>
+      <c r="AV6" s="141"/>
+      <c r="AW6" s="141"/>
+      <c r="AX6" s="141"/>
+      <c r="AY6" s="141"/>
+      <c r="AZ6" s="141">
         <f>AZ4</f>
         <v>42149</v>
       </c>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
-      <c r="BC6" s="135"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
-      <c r="BG6" s="135">
+      <c r="BA6" s="141"/>
+      <c r="BB6" s="141"/>
+      <c r="BC6" s="141"/>
+      <c r="BD6" s="141"/>
+      <c r="BE6" s="141"/>
+      <c r="BF6" s="141"/>
+      <c r="BG6" s="141">
         <f>BG4</f>
         <v>42156</v>
       </c>
-      <c r="BH6" s="135"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
+      <c r="BH6" s="141"/>
+      <c r="BI6" s="141"/>
+      <c r="BJ6" s="141"/>
+      <c r="BK6" s="141"/>
+      <c r="BL6" s="141"/>
+      <c r="BM6" s="141"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="22">
       <c r="A7" s="20" t="s">
@@ -9070,6 +9051,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BG6:BM6"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AS6:AY6"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="AZ6:BF6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="J5:P5"/>
@@ -9078,20 +9073,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BG6:BM6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AS6:AY6"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AZ5:BF5"/>
-    <mergeCell ref="AZ6:BF6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">
@@ -9109,15 +9090,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:BM7">
-    <cfRule type="expression" dxfId="30" priority="45">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>AND(TODAY()&gt;=J4,TODAY()&lt;K4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:BM81 J8:BM16 J30:BM30 J34:BM34 J37:BM56 J23:BM24">
-    <cfRule type="expression" dxfId="29" priority="55">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="73">
+    <cfRule type="expression" dxfId="26" priority="73">
       <formula>AND($E8&lt;K$4,$F8&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9136,10 +9117,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BM25">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="24" priority="39">
       <formula>AND($E25&lt;K$4,$F25&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9158,10 +9139,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:BM28">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>AND($E26&lt;K$4,$F26&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9180,10 +9161,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BM31">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>AND($E31&lt;K$4,$F31&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9202,10 +9183,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:BM36">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>AND($E35&lt;K$4,$F35&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9224,10 +9205,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BM17">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="17" priority="26">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>AND($E17&lt;K$4,$F17&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9246,10 +9227,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BM18">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>AND($E18&lt;K$4,$F18&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9268,10 +9249,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>AND($E19&lt;K$4,$F19&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9290,10 +9271,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM20">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>AND($E20&lt;K$4,$F20&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9312,10 +9293,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BM21">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>AND($E21&lt;K$4,$F21&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9334,10 +9315,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:BM22">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND($E22&lt;K$4,$F22&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9356,10 +9337,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BM32">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>AND($E32&lt;K$4,$F32&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9378,10 +9359,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BM33">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND($E33&lt;K$4,$F33&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9400,15 +9381,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:BM29">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>J$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND($E29&lt;K$4,$F29&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="59" fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="56" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>

--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -2364,11 +2364,14 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2387,9 +2390,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3382,7 +3382,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3416,20 +3416,20 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="139"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3490,15 +3490,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="140">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="141">
         <v>42088</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="141"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>42107</v>
@@ -3725,178 +3725,178 @@
       </c>
     </row>
     <row r="5" spans="1:66">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="23">
         <v>4</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="135" t="str">
+      <c r="J5" s="134" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135" t="str">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135" t="str">
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="135" t="str">
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AF5" s="135"/>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135" t="str">
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AM5" s="135"/>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="135"/>
-      <c r="AS5" s="135" t="str">
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="135"/>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="135"/>
-      <c r="AZ5" s="135" t="str">
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BA5" s="135"/>
-      <c r="BB5" s="135"/>
-      <c r="BC5" s="135"/>
-      <c r="BD5" s="135"/>
-      <c r="BE5" s="135"/>
-      <c r="BF5" s="135"/>
-      <c r="BG5" s="135" t="str">
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BH5" s="135"/>
-      <c r="BI5" s="135"/>
-      <c r="BJ5" s="135"/>
-      <c r="BK5" s="135"/>
-      <c r="BL5" s="135"/>
-      <c r="BM5" s="135"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
     </row>
     <row r="6" spans="1:66">
       <c r="B6" s="22"/>
-      <c r="J6" s="141">
+      <c r="J6" s="135">
         <f>J4</f>
         <v>42107</v>
       </c>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141">
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135">
         <f>Q4</f>
         <v>42114</v>
       </c>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141">
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135">
         <f>X4</f>
         <v>42121</v>
       </c>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141">
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135">
         <f>AE4</f>
         <v>42128</v>
       </c>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135">
         <f>AL4</f>
         <v>42135</v>
       </c>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="141"/>
-      <c r="AP6" s="141"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="141">
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135">
         <f>AS4</f>
         <v>42142</v>
       </c>
-      <c r="AT6" s="141"/>
-      <c r="AU6" s="141"/>
-      <c r="AV6" s="141"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="141"/>
-      <c r="AY6" s="141"/>
-      <c r="AZ6" s="141">
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135"/>
+      <c r="AZ6" s="135">
         <f>AZ4</f>
         <v>42149</v>
       </c>
-      <c r="BA6" s="141"/>
-      <c r="BB6" s="141"/>
-      <c r="BC6" s="141"/>
-      <c r="BD6" s="141"/>
-      <c r="BE6" s="141"/>
-      <c r="BF6" s="141"/>
-      <c r="BG6" s="141">
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135"/>
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135">
         <f>BG4</f>
         <v>42156</v>
       </c>
-      <c r="BH6" s="141"/>
-      <c r="BI6" s="141"/>
-      <c r="BJ6" s="141"/>
-      <c r="BK6" s="141"/>
-      <c r="BL6" s="141"/>
-      <c r="BM6" s="141"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="135"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="22">
       <c r="A7" s="20" t="s">
@@ -4858,7 +4858,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="90">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I16" s="108">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -6217,7 +6217,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="90">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" si="14"/>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" si="14"/>
@@ -6788,7 +6788,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="108">
         <v>1</v>
@@ -7650,7 +7650,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="108">
         <v>1</v>
@@ -9051,6 +9051,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="BG6:BM6"/>
     <mergeCell ref="AL6:AR6"/>
@@ -9059,20 +9073,6 @@
     <mergeCell ref="AL5:AR5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="AZ6:BF6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">

--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTH\Courses\Period 4\Project in Wireless Communication\Github\eq2440_2015\ProjectManagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28680" windowHeight="17440"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="28680" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$5:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +37,7 @@
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +399,7 @@
     <author>Vertex42</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2364,14 +2369,11 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2390,6 +2392,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2821,6 +2826,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2875,14 +2883,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -2892,7 +2900,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3375,30 +3383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BN81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="11" customWidth="1"/>
-    <col min="5" max="6" width="11.1640625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="5.5" style="1" customWidth="1"/>
-    <col min="10" max="65" width="2.5" style="1" customWidth="1"/>
-    <col min="66" max="66" width="9.1640625" style="112"/>
-    <col min="67" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="6.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="5.42578125" style="1" customWidth="1"/>
+    <col min="10" max="65" width="2.42578125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="9.140625" style="112"/>
+    <col min="67" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="17">
+    <row r="1" spans="1:66" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>154</v>
       </c>
@@ -3409,27 +3417,27 @@
       <c r="F1" s="25"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:66">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66">
-      <c r="B3" s="138" t="s">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B3" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="140"/>
+      <c r="F3" s="139"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3489,416 +3497,416 @@
       <c r="BL3" s="8"/>
       <c r="BM3" s="8"/>
     </row>
-    <row r="4" spans="1:66">
-      <c r="B4" s="138" t="s">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="141">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="140">
         <v>42088</v>
       </c>
-      <c r="F4" s="141"/>
+      <c r="F4" s="140"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
-        <v>42107</v>
+        <v>42114</v>
       </c>
       <c r="K4" s="9">
         <f>J4+1</f>
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:BM4" si="0">K4+1</f>
-        <v>42109</v>
+        <v>42116</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" si="0"/>
-        <v>42110</v>
+        <v>42117</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="0"/>
-        <v>42111</v>
+        <v>42118</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>42112</v>
+        <v>42119</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>42113</v>
+        <v>42120</v>
       </c>
       <c r="Q4" s="9">
         <f t="shared" si="0"/>
-        <v>42114</v>
+        <v>42121</v>
       </c>
       <c r="R4" s="9">
         <f t="shared" si="0"/>
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="S4" s="9">
         <f t="shared" si="0"/>
-        <v>42116</v>
+        <v>42123</v>
       </c>
       <c r="T4" s="9">
         <f t="shared" si="0"/>
-        <v>42117</v>
+        <v>42124</v>
       </c>
       <c r="U4" s="9">
         <f t="shared" si="0"/>
-        <v>42118</v>
+        <v>42125</v>
       </c>
       <c r="V4" s="9">
         <f t="shared" si="0"/>
-        <v>42119</v>
+        <v>42126</v>
       </c>
       <c r="W4" s="9">
         <f t="shared" si="0"/>
-        <v>42120</v>
+        <v>42127</v>
       </c>
       <c r="X4" s="9">
         <f t="shared" si="0"/>
-        <v>42121</v>
+        <v>42128</v>
       </c>
       <c r="Y4" s="9">
         <f t="shared" si="0"/>
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="Z4" s="9">
         <f t="shared" si="0"/>
-        <v>42123</v>
+        <v>42130</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="0"/>
-        <v>42124</v>
+        <v>42131</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="0"/>
-        <v>42125</v>
+        <v>42132</v>
       </c>
       <c r="AC4" s="9">
         <f t="shared" si="0"/>
-        <v>42126</v>
+        <v>42133</v>
       </c>
       <c r="AD4" s="9">
         <f t="shared" si="0"/>
-        <v>42127</v>
+        <v>42134</v>
       </c>
       <c r="AE4" s="9">
         <f t="shared" si="0"/>
-        <v>42128</v>
+        <v>42135</v>
       </c>
       <c r="AF4" s="9">
         <f t="shared" si="0"/>
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="AG4" s="9">
         <f t="shared" si="0"/>
-        <v>42130</v>
+        <v>42137</v>
       </c>
       <c r="AH4" s="9">
         <f t="shared" si="0"/>
-        <v>42131</v>
+        <v>42138</v>
       </c>
       <c r="AI4" s="9">
         <f t="shared" si="0"/>
-        <v>42132</v>
+        <v>42139</v>
       </c>
       <c r="AJ4" s="9">
         <f t="shared" si="0"/>
-        <v>42133</v>
+        <v>42140</v>
       </c>
       <c r="AK4" s="9">
         <f t="shared" si="0"/>
-        <v>42134</v>
+        <v>42141</v>
       </c>
       <c r="AL4" s="9">
         <f t="shared" si="0"/>
-        <v>42135</v>
+        <v>42142</v>
       </c>
       <c r="AM4" s="9">
         <f t="shared" si="0"/>
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="AN4" s="9">
         <f t="shared" si="0"/>
-        <v>42137</v>
+        <v>42144</v>
       </c>
       <c r="AO4" s="9">
         <f t="shared" si="0"/>
-        <v>42138</v>
+        <v>42145</v>
       </c>
       <c r="AP4" s="9">
         <f t="shared" si="0"/>
-        <v>42139</v>
+        <v>42146</v>
       </c>
       <c r="AQ4" s="9">
         <f t="shared" si="0"/>
-        <v>42140</v>
+        <v>42147</v>
       </c>
       <c r="AR4" s="9">
         <f t="shared" si="0"/>
-        <v>42141</v>
+        <v>42148</v>
       </c>
       <c r="AS4" s="9">
         <f t="shared" si="0"/>
-        <v>42142</v>
+        <v>42149</v>
       </c>
       <c r="AT4" s="9">
         <f t="shared" si="0"/>
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="AU4" s="9">
         <f t="shared" si="0"/>
-        <v>42144</v>
+        <v>42151</v>
       </c>
       <c r="AV4" s="9">
         <f t="shared" si="0"/>
-        <v>42145</v>
+        <v>42152</v>
       </c>
       <c r="AW4" s="9">
         <f t="shared" si="0"/>
-        <v>42146</v>
+        <v>42153</v>
       </c>
       <c r="AX4" s="9">
         <f t="shared" si="0"/>
-        <v>42147</v>
+        <v>42154</v>
       </c>
       <c r="AY4" s="9">
         <f t="shared" si="0"/>
-        <v>42148</v>
+        <v>42155</v>
       </c>
       <c r="AZ4" s="9">
         <f t="shared" si="0"/>
-        <v>42149</v>
+        <v>42156</v>
       </c>
       <c r="BA4" s="9">
         <f t="shared" si="0"/>
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="BB4" s="9">
         <f t="shared" si="0"/>
-        <v>42151</v>
+        <v>42158</v>
       </c>
       <c r="BC4" s="9">
         <f t="shared" si="0"/>
-        <v>42152</v>
+        <v>42159</v>
       </c>
       <c r="BD4" s="9">
         <f t="shared" si="0"/>
-        <v>42153</v>
+        <v>42160</v>
       </c>
       <c r="BE4" s="9">
         <f t="shared" si="0"/>
-        <v>42154</v>
+        <v>42161</v>
       </c>
       <c r="BF4" s="9">
         <f t="shared" si="0"/>
-        <v>42155</v>
+        <v>42162</v>
       </c>
       <c r="BG4" s="9">
         <f t="shared" si="0"/>
-        <v>42156</v>
+        <v>42163</v>
       </c>
       <c r="BH4" s="9">
         <f t="shared" si="0"/>
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="BI4" s="9">
         <f t="shared" si="0"/>
-        <v>42158</v>
+        <v>42165</v>
       </c>
       <c r="BJ4" s="9">
         <f t="shared" si="0"/>
-        <v>42159</v>
+        <v>42166</v>
       </c>
       <c r="BK4" s="9">
         <f t="shared" si="0"/>
-        <v>42160</v>
+        <v>42167</v>
       </c>
       <c r="BL4" s="9">
         <f t="shared" si="0"/>
-        <v>42161</v>
+        <v>42168</v>
       </c>
       <c r="BM4" s="9">
         <f t="shared" si="0"/>
-        <v>42162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66">
-      <c r="B5" s="137" t="s">
+        <v>42169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="B5" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="134" t="str">
+      <c r="J5" s="135" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="AF5" s="135"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="135" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="135"/>
+      <c r="AR5" s="135"/>
+      <c r="AS5" s="135" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 9</v>
-      </c>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="135"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="135"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="135"/>
+      <c r="AZ5" s="135" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 10</v>
-      </c>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134" t="str">
+        <v>Week 11</v>
+      </c>
+      <c r="BA5" s="135"/>
+      <c r="BB5" s="135"/>
+      <c r="BC5" s="135"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="135"/>
+      <c r="BG5" s="135" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
-        <v>Week 11</v>
-      </c>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
-    </row>
-    <row r="6" spans="1:66">
+        <v>Week 12</v>
+      </c>
+      <c r="BH5" s="135"/>
+      <c r="BI5" s="135"/>
+      <c r="BJ5" s="135"/>
+      <c r="BK5" s="135"/>
+      <c r="BL5" s="135"/>
+      <c r="BM5" s="135"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="22"/>
-      <c r="J6" s="135">
+      <c r="J6" s="141">
         <f>J4</f>
-        <v>42107</v>
-      </c>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135">
+        <v>42114</v>
+      </c>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141">
         <f>Q4</f>
-        <v>42114</v>
-      </c>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135">
+        <v>42121</v>
+      </c>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141">
         <f>X4</f>
-        <v>42121</v>
-      </c>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135">
+        <v>42128</v>
+      </c>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141">
         <f>AE4</f>
-        <v>42128</v>
-      </c>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135">
+        <v>42135</v>
+      </c>
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141">
         <f>AL4</f>
-        <v>42135</v>
-      </c>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="135"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="135"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="135">
+        <v>42142</v>
+      </c>
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141"/>
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="141">
         <f>AS4</f>
-        <v>42142</v>
-      </c>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
-      <c r="AZ6" s="135">
+        <v>42149</v>
+      </c>
+      <c r="AT6" s="141"/>
+      <c r="AU6" s="141"/>
+      <c r="AV6" s="141"/>
+      <c r="AW6" s="141"/>
+      <c r="AX6" s="141"/>
+      <c r="AY6" s="141"/>
+      <c r="AZ6" s="141">
         <f>AZ4</f>
-        <v>42149</v>
-      </c>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
-      <c r="BC6" s="135"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
-      <c r="BG6" s="135">
+        <v>42156</v>
+      </c>
+      <c r="BA6" s="141"/>
+      <c r="BB6" s="141"/>
+      <c r="BC6" s="141"/>
+      <c r="BD6" s="141"/>
+      <c r="BE6" s="141"/>
+      <c r="BF6" s="141"/>
+      <c r="BG6" s="141">
         <f>BG4</f>
-        <v>42156</v>
-      </c>
-      <c r="BH6" s="135"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
-    </row>
-    <row r="7" spans="1:66" s="5" customFormat="1" ht="22">
+        <v>42163</v>
+      </c>
+      <c r="BH6" s="141"/>
+      <c r="BI6" s="141"/>
+      <c r="BJ6" s="141"/>
+      <c r="BK6" s="141"/>
+      <c r="BL6" s="141"/>
+      <c r="BM6" s="141"/>
+    </row>
+    <row r="7" spans="1:66" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -4152,7 +4160,7 @@
       </c>
       <c r="BN7" s="113"/>
     </row>
-    <row r="8" spans="1:66" s="82" customFormat="1">
+    <row r="8" spans="1:66" s="82" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A8,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A8,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A8,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A8,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A8,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -4225,7 +4233,7 @@
       <c r="BM8" s="81"/>
       <c r="BN8" s="114"/>
     </row>
-    <row r="9" spans="1:66" s="91" customFormat="1">
+    <row r="9" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83" t="str">
         <f t="shared" ref="A9:A16" ca="1" si="9">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A9,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))),OFFSET(A9,-1,0,1,1)&amp;".1",LEFT(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A9,-1,0,1,1),LEN(OFFSET(A9,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A9,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A9,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -4312,7 +4320,7 @@
       <c r="BM9" s="81"/>
       <c r="BN9" s="115"/>
     </row>
-    <row r="10" spans="1:66" s="91" customFormat="1">
+    <row r="10" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.2</v>
@@ -4399,7 +4407,7 @@
       <c r="BM10" s="81"/>
       <c r="BN10" s="115"/>
     </row>
-    <row r="11" spans="1:66" s="91" customFormat="1">
+    <row r="11" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.3</v>
@@ -4486,7 +4494,7 @@
       <c r="BM11" s="81"/>
       <c r="BN11" s="115"/>
     </row>
-    <row r="12" spans="1:66" s="91" customFormat="1">
+    <row r="12" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.4</v>
@@ -4573,7 +4581,7 @@
       <c r="BM12" s="81"/>
       <c r="BN12" s="115"/>
     </row>
-    <row r="13" spans="1:66" s="91" customFormat="1">
+    <row r="13" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.5</v>
@@ -4660,7 +4668,7 @@
       <c r="BM13" s="81"/>
       <c r="BN13" s="115"/>
     </row>
-    <row r="14" spans="1:66" s="91" customFormat="1">
+    <row r="14" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.6</v>
@@ -4747,7 +4755,7 @@
       <c r="BM14" s="81"/>
       <c r="BN14" s="115"/>
     </row>
-    <row r="15" spans="1:66" s="91" customFormat="1">
+    <row r="15" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.7</v>
@@ -4834,7 +4842,7 @@
       <c r="BM15" s="81"/>
       <c r="BN15" s="115"/>
     </row>
-    <row r="16" spans="1:66" s="91" customFormat="1">
+    <row r="16" spans="1:66" s="91" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="83" t="str">
         <f t="shared" ca="1" si="9"/>
         <v>1.8</v>
@@ -4858,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="90">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I16" s="108">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -4922,7 +4930,7 @@
       <c r="BM16" s="81"/>
       <c r="BN16" s="115"/>
     </row>
-    <row r="17" spans="1:66" s="92" customFormat="1">
+    <row r="17" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="130" t="str">
         <f t="shared" ref="A17:A22" ca="1" si="12">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A17,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))),OFFSET(A17,-1,0,1,1)&amp;".1",LEFT(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A17,-1,0,1,1),LEN(OFFSET(A17,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A17,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A17,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>1.8.1</v>
@@ -4995,7 +5003,7 @@
       <c r="BM17" s="81"/>
       <c r="BN17" s="112"/>
     </row>
-    <row r="18" spans="1:66" s="92" customFormat="1">
+    <row r="18" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="130" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>1.8.2</v>
@@ -5068,7 +5076,7 @@
       <c r="BM18" s="81"/>
       <c r="BN18" s="112"/>
     </row>
-    <row r="19" spans="1:66" s="92" customFormat="1">
+    <row r="19" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="130" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>1.8.3</v>
@@ -5141,7 +5149,7 @@
       <c r="BM19" s="81"/>
       <c r="BN19" s="112"/>
     </row>
-    <row r="20" spans="1:66" s="92" customFormat="1">
+    <row r="20" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="130" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>1.8.4</v>
@@ -5214,7 +5222,7 @@
       <c r="BM20" s="81"/>
       <c r="BN20" s="112"/>
     </row>
-    <row r="21" spans="1:66" s="92" customFormat="1">
+    <row r="21" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="130" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>1.8.5</v>
@@ -5287,7 +5295,7 @@
       <c r="BM21" s="81"/>
       <c r="BN21" s="112"/>
     </row>
-    <row r="22" spans="1:66" s="92" customFormat="1">
+    <row r="22" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="130" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>1.8.6</v>
@@ -5360,7 +5368,7 @@
       <c r="BM22" s="81"/>
       <c r="BN22" s="112"/>
     </row>
-    <row r="23" spans="1:66" s="82" customFormat="1">
+    <row r="23" spans="1:66" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A23,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A23,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A23,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A23,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -5435,7 +5443,7 @@
       <c r="BM23" s="81"/>
       <c r="BN23" s="114"/>
     </row>
-    <row r="24" spans="1:66" s="91" customFormat="1">
+    <row r="24" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83" t="str">
         <f t="shared" ref="A24:A37" ca="1" si="13">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A24,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))),OFFSET(A24,-1,0,1,1)&amp;".1",LEFT(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A24,-1,0,1,1),LEN(OFFSET(A24,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A24,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A24,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -5523,7 +5531,7 @@
       <c r="BM24" s="81"/>
       <c r="BN24" s="115"/>
     </row>
-    <row r="25" spans="1:66" s="92" customFormat="1">
+    <row r="25" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A25,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))),OFFSET(A25,-1,0,1,1)&amp;".1",LEFT(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A25,-1,0,1,1),LEN(OFFSET(A25,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A25,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A25,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
@@ -5596,7 +5604,7 @@
       <c r="BM25" s="81"/>
       <c r="BN25" s="112"/>
     </row>
-    <row r="26" spans="1:66" s="92" customFormat="1">
+    <row r="26" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A26,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))),OFFSET(A26,-1,0,1,1)&amp;".1",LEFT(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A26,-1,0,1,1),LEN(OFFSET(A26,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A26,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A26,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
@@ -5669,7 +5677,7 @@
       <c r="BM26" s="81"/>
       <c r="BN26" s="112"/>
     </row>
-    <row r="27" spans="1:66" s="92" customFormat="1">
+    <row r="27" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A27,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))),OFFSET(A27,-1,0,1,1)&amp;".1",LEFT(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A27,-1,0,1,1),LEN(OFFSET(A27,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A27,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A27,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
@@ -5742,7 +5750,7 @@
       <c r="BM27" s="81"/>
       <c r="BN27" s="112"/>
     </row>
-    <row r="28" spans="1:66" s="92" customFormat="1">
+    <row r="28" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A28,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))),OFFSET(A28,-1,0,1,1)&amp;".1",LEFT(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A28,-1,0,1,1),LEN(OFFSET(A28,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A28,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A28,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.4</v>
@@ -5815,7 +5823,7 @@
       <c r="BM28" s="81"/>
       <c r="BN28" s="112"/>
     </row>
-    <row r="29" spans="1:66" s="92" customFormat="1">
+    <row r="29" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A29,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))),OFFSET(A29,-1,0,1,1)&amp;".1",LEFT(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A29,-1,0,1,1),LEN(OFFSET(A29,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A29,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A29,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.1.5</v>
@@ -5888,7 +5896,7 @@
       <c r="BM29" s="81"/>
       <c r="BN29" s="112"/>
     </row>
-    <row r="30" spans="1:66" s="91" customFormat="1">
+    <row r="30" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>2.2</v>
@@ -5976,7 +5984,7 @@
       <c r="BM30" s="81"/>
       <c r="BN30" s="115"/>
     </row>
-    <row r="31" spans="1:66" s="92" customFormat="1">
+    <row r="31" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A31,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))),OFFSET(A31,-1,0,1,1)&amp;".1",LEFT(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A31,-1,0,1,1),LEN(OFFSET(A31,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A31,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A31,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
@@ -6049,7 +6057,7 @@
       <c r="BM31" s="81"/>
       <c r="BN31" s="112"/>
     </row>
-    <row r="32" spans="1:66" s="92" customFormat="1">
+    <row r="32" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A32,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))),OFFSET(A32,-1,0,1,1)&amp;".1",LEFT(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A32,-1,0,1,1),LEN(OFFSET(A32,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A32,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A32,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
@@ -6122,7 +6130,7 @@
       <c r="BM32" s="81"/>
       <c r="BN32" s="112"/>
     </row>
-    <row r="33" spans="1:66" s="92" customFormat="1">
+    <row r="33" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A33,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))),OFFSET(A33,-1,0,1,1)&amp;".1",LEFT(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A33,-1,0,1,1),LEN(OFFSET(A33,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A33,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A33,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
@@ -6195,7 +6203,7 @@
       <c r="BM33" s="81"/>
       <c r="BN33" s="112"/>
     </row>
-    <row r="34" spans="1:66" s="91" customFormat="1" ht="22">
+    <row r="34" spans="1:66" s="91" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="83" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>2.3</v>
@@ -6217,7 +6225,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="90">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" si="14"/>
@@ -6281,7 +6289,7 @@
       <c r="BM34" s="81"/>
       <c r="BN34" s="115"/>
     </row>
-    <row r="35" spans="1:66" s="92" customFormat="1">
+    <row r="35" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A35,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))),OFFSET(A35,-1,0,1,1)&amp;".1",LEFT(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A35,-1,0,1,1),LEN(OFFSET(A35,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A35,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A35,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.3.1</v>
@@ -6354,7 +6362,7 @@
       <c r="BM35" s="81"/>
       <c r="BN35" s="112"/>
     </row>
-    <row r="36" spans="1:66" s="92" customFormat="1">
+    <row r="36" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="130" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A36,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))),OFFSET(A36,-1,0,1,1)&amp;".1",LEFT(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A36,-1,0,1,1),LEN(OFFSET(A36,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A36,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A36,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>2.3.2</v>
@@ -6427,7 +6435,7 @@
       <c r="BM36" s="81"/>
       <c r="BN36" s="112"/>
     </row>
-    <row r="37" spans="1:66" s="91" customFormat="1" ht="22">
+    <row r="37" spans="1:66" s="91" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="83" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>2.4</v>
@@ -6451,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" si="14"/>
@@ -6515,7 +6523,7 @@
       <c r="BM37" s="81"/>
       <c r="BN37" s="115"/>
     </row>
-    <row r="38" spans="1:66" s="82" customFormat="1" ht="22">
+    <row r="38" spans="1:66" s="82" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A38,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A38,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A38,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A38,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -6588,7 +6596,7 @@
       <c r="BM38" s="81"/>
       <c r="BN38" s="114"/>
     </row>
-    <row r="39" spans="1:66" s="91" customFormat="1">
+    <row r="39" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="83" t="str">
         <f t="shared" ref="A39:A47" ca="1" si="16">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A39,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))),OFFSET(A39,-1,0,1,1)&amp;".1",LEFT(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A39,-1,0,1,1),LEN(OFFSET(A39,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A39,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A39,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -6676,7 +6684,7 @@
       <c r="BM39" s="81"/>
       <c r="BN39" s="115"/>
     </row>
-    <row r="40" spans="1:66" s="91" customFormat="1">
+    <row r="40" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.2</v>
@@ -6764,7 +6772,7 @@
       <c r="BM40" s="81"/>
       <c r="BN40" s="115"/>
     </row>
-    <row r="41" spans="1:66" s="91" customFormat="1">
+    <row r="41" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.3</v>
@@ -6851,7 +6859,7 @@
       <c r="BM41" s="81"/>
       <c r="BN41" s="115"/>
     </row>
-    <row r="42" spans="1:66" s="91" customFormat="1">
+    <row r="42" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.4</v>
@@ -6939,7 +6947,7 @@
       <c r="BM42" s="81"/>
       <c r="BN42" s="115"/>
     </row>
-    <row r="43" spans="1:66" s="91" customFormat="1">
+    <row r="43" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.5</v>
@@ -7027,7 +7035,7 @@
       <c r="BM43" s="81"/>
       <c r="BN43" s="115"/>
     </row>
-    <row r="44" spans="1:66" s="91" customFormat="1">
+    <row r="44" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.6</v>
@@ -7115,7 +7123,7 @@
       <c r="BM44" s="81"/>
       <c r="BN44" s="115"/>
     </row>
-    <row r="45" spans="1:66" s="91" customFormat="1">
+    <row r="45" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.7</v>
@@ -7203,7 +7211,7 @@
       <c r="BM45" s="81"/>
       <c r="BN45" s="115"/>
     </row>
-    <row r="46" spans="1:66" s="91" customFormat="1">
+    <row r="46" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.8</v>
@@ -7291,7 +7299,7 @@
       <c r="BM46" s="81"/>
       <c r="BN46" s="115"/>
     </row>
-    <row r="47" spans="1:66" s="91" customFormat="1">
+    <row r="47" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="83" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3.9</v>
@@ -7379,7 +7387,7 @@
       <c r="BM47" s="81"/>
       <c r="BN47" s="115"/>
     </row>
-    <row r="48" spans="1:66" s="82" customFormat="1" ht="22">
+    <row r="48" spans="1:66" s="82" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A48,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A48,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A48,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A48,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -7452,7 +7460,7 @@
       <c r="BM48" s="81"/>
       <c r="BN48" s="114"/>
     </row>
-    <row r="49" spans="1:66" s="91" customFormat="1">
+    <row r="49" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="83" t="str">
         <f t="shared" ref="A49:A56" ca="1" si="26">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A49,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))),OFFSET(A49,-1,0,1,1)&amp;".1",LEFT(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A49,-1,0,1,1),LEN(OFFSET(A49,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A49,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A49,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -7539,7 +7547,7 @@
       <c r="BM49" s="81"/>
       <c r="BN49" s="115"/>
     </row>
-    <row r="50" spans="1:66" s="91" customFormat="1">
+    <row r="50" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.2</v>
@@ -7626,7 +7634,7 @@
       <c r="BM50" s="81"/>
       <c r="BN50" s="115"/>
     </row>
-    <row r="51" spans="1:66" s="91" customFormat="1">
+    <row r="51" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.3</v>
@@ -7713,7 +7721,7 @@
       <c r="BM51" s="81"/>
       <c r="BN51" s="115"/>
     </row>
-    <row r="52" spans="1:66" s="91" customFormat="1">
+    <row r="52" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.4</v>
@@ -7800,7 +7808,7 @@
       <c r="BM52" s="81"/>
       <c r="BN52" s="115"/>
     </row>
-    <row r="53" spans="1:66" s="91" customFormat="1">
+    <row r="53" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.5</v>
@@ -7887,7 +7895,7 @@
       <c r="BM53" s="81"/>
       <c r="BN53" s="115"/>
     </row>
-    <row r="54" spans="1:66" s="91" customFormat="1">
+    <row r="54" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.6</v>
@@ -7974,7 +7982,7 @@
       <c r="BM54" s="81"/>
       <c r="BN54" s="115"/>
     </row>
-    <row r="55" spans="1:66" s="91" customFormat="1">
+    <row r="55" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.7</v>
@@ -8061,7 +8069,7 @@
       <c r="BM55" s="81"/>
       <c r="BN55" s="115"/>
     </row>
-    <row r="56" spans="1:66" s="91" customFormat="1">
+    <row r="56" spans="1:66" s="91" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="83" t="str">
         <f t="shared" ca="1" si="26"/>
         <v>4.8</v>
@@ -8148,22 +8156,22 @@
       <c r="BM56" s="81"/>
       <c r="BN56" s="115"/>
     </row>
-    <row r="65" spans="1:66" s="96" customFormat="1">
+    <row r="65" spans="1:66" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BN65" s="116"/>
     </row>
-    <row r="66" spans="1:66" s="92" customFormat="1">
+    <row r="66" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BN66" s="112"/>
     </row>
-    <row r="67" spans="1:66" s="92" customFormat="1">
+    <row r="67" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BN67" s="112"/>
     </row>
-    <row r="68" spans="1:66" s="92" customFormat="1">
+    <row r="68" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BN68" s="112"/>
     </row>
-    <row r="69" spans="1:66" s="92" customFormat="1">
+    <row r="69" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="BN69" s="112"/>
     </row>
-    <row r="70" spans="1:66" s="92" customFormat="1">
+    <row r="70" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="127" t="s">
         <v>7</v>
       </c>
@@ -8233,7 +8241,7 @@
       <c r="BM70" s="81"/>
       <c r="BN70" s="112"/>
     </row>
-    <row r="71" spans="1:66" s="92" customFormat="1">
+    <row r="71" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="93" t="s">
         <v>130</v>
       </c>
@@ -8303,7 +8311,7 @@
       <c r="BM71" s="81"/>
       <c r="BN71" s="112"/>
     </row>
-    <row r="72" spans="1:66" s="92" customFormat="1">
+    <row r="72" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>22</v>
       </c>
@@ -8373,7 +8381,7 @@
       <c r="BM72" s="81"/>
       <c r="BN72" s="112"/>
     </row>
-    <row r="73" spans="1:66" s="92" customFormat="1">
+    <row r="73" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A73,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A73,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A73,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A73,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -8446,7 +8454,7 @@
       <c r="BM73" s="81"/>
       <c r="BN73" s="112"/>
     </row>
-    <row r="74" spans="1:66" s="92" customFormat="1">
+    <row r="74" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A74,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))),OFFSET(A74,-1,0,1,1)&amp;".1",LEFT(OFFSET(A74,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A74,-1,0,1,1),LEN(OFFSET(A74,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A74,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A74,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -8519,7 +8527,7 @@
       <c r="BM74" s="81"/>
       <c r="BN74" s="112"/>
     </row>
-    <row r="75" spans="1:66" s="92" customFormat="1">
+    <row r="75" spans="1:66" s="92" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A75,-1,0,1,1),".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))),OFFSET(A75,-1,0,1,1)&amp;".1",LEFT(OFFSET(A75,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))),VALUE(RIGHT(OFFSET(A75,-1,0,1,1),LEN(OFFSET(A75,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))))+1,VALUE(MID(OFFSET(A75,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))+1,(FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",3))-FIND("`",SUBSTITUTE(OFFSET(A75,-1,0,1,1),".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -8592,7 +8600,7 @@
       <c r="BM75" s="81"/>
       <c r="BN75" s="112"/>
     </row>
-    <row r="76" spans="1:66">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A76" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A76,-1,0,1,1),".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))),OFFSET(A76,-1,0,1,1)&amp;".1",LEFT(OFFSET(A76,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",4))),VALUE(RIGHT(OFFSET(A76,-1,0,1,1),LEN(OFFSET(A76,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))))+1,VALUE(MID(OFFSET(A76,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))+1,(FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",4))-FIND("`",SUBSTITUTE(OFFSET(A76,-1,0,1,1),".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -8664,7 +8672,7 @@
       <c r="BL76" s="81"/>
       <c r="BM76" s="81"/>
     </row>
-    <row r="77" spans="1:66">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>131</v>
       </c>
@@ -8733,7 +8741,7 @@
       <c r="BL77" s="81"/>
       <c r="BM77" s="81"/>
     </row>
-    <row r="78" spans="1:66">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A78" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A78,-1,0,1,1),".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A78,-1,0,1,1),".","`",1))),TEXT(VALUE(OFFSET(A78,-1,0,1,1))+1,"#"),TEXT(VALUE(LEFT(OFFSET(A78,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A78,-1,0,1,1),".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -8817,7 +8825,7 @@
       <c r="BL78" s="81"/>
       <c r="BM78" s="81"/>
     </row>
-    <row r="79" spans="1:66">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A79" s="105" t="s">
         <v>26</v>
       </c>
@@ -8893,7 +8901,7 @@
       <c r="BL79" s="81"/>
       <c r="BM79" s="81"/>
     </row>
-    <row r="80" spans="1:66">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A80" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A80,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))),OFFSET(A80,-1,0,1,1)&amp;".1",LEFT(OFFSET(A80,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A80,-1,0,1,1),LEN(OFFSET(A80,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A80,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A80,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -8971,7 +8979,7 @@
       <c r="BL80" s="81"/>
       <c r="BM80" s="81"/>
     </row>
-    <row r="81" spans="1:65">
+    <row r="81" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A81" s="83" t="str">
         <f ca="1">IF(ISERROR(VALUE(SUBSTITUTE(OFFSET(A81,-1,0,1,1),".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))),OFFSET(A81,-1,0,1,1)&amp;".1",LEFT(OFFSET(A81,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",2))),VALUE(RIGHT(OFFSET(A81,-1,0,1,1),LEN(OFFSET(A81,-1,0,1,1))-FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))))+1,VALUE(MID(OFFSET(A81,-1,0,1,1),FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))+1,(FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",2))-FIND("`",SUBSTITUTE(OFFSET(A81,-1,0,1,1),".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -9051,6 +9059,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BG6:BM6"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AS6:AY6"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="AZ6:BF6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="J5:P5"/>
@@ -9059,20 +9081,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BG6:BM6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AS6:AY6"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AZ5:BF5"/>
-    <mergeCell ref="AZ6:BF6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">
@@ -9622,175 +9630,175 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="42" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="42" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="42"/>
+    <col min="1" max="1" width="5.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="42" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="48" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="48"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="119" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="120" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="119" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="42" customFormat="1"/>
-    <row r="18" spans="2:2" s="42" customFormat="1" ht="13">
+    <row r="17" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:2" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="121" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="42" customFormat="1">
+    <row r="19" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="42" customFormat="1">
+    <row r="20" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="42" customFormat="1" ht="13">
+    <row r="22" spans="2:2" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="42" customFormat="1">
+    <row r="23" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="42" customFormat="1">
+    <row r="24" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="48" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="13">
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="121" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="48" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="13">
+    <row r="35" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="2:2" s="42" customFormat="1" ht="13">
+    <row r="38" spans="2:2" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="2:2" s="42" customFormat="1">
+    <row r="39" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="2:2" s="42" customFormat="1">
+    <row r="40" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="2:2" s="42" customFormat="1"/>
-    <row r="42" spans="2:2" ht="13">
+    <row r="41" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="121" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="48" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17">
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="119" t="s">
         <v>108</v>
       </c>
@@ -9813,88 +9821,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="12.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="68"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="125"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" s="27" customFormat="1" ht="15">
+    <row r="4" spans="1:3" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="142" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="142"/>
     </row>
-    <row r="5" spans="1:3" s="27" customFormat="1">
+    <row r="5" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="27" customFormat="1">
+    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="27" customFormat="1">
+    <row r="7" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="27" customFormat="1">
+    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24">
+    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="48" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="48" customFormat="1"/>
-    <row r="16" spans="1:3" ht="15">
+    <row r="15" spans="1:3" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="142" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="142"/>
     </row>
-    <row r="17" spans="1:3" s="27" customFormat="1">
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
         <v>41</v>
       </c>
@@ -9902,12 +9910,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
         <v>43</v>
       </c>
@@ -9915,136 +9923,136 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="27" customFormat="1">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="27" customFormat="1">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1">
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="142" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="142"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="64" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="31"/>
     </row>
-    <row r="35" spans="1:2" ht="24">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B35" s="54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="52"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="24">
+    <row r="38" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B38" s="54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="55"/>
     </row>
-    <row r="40" spans="1:2" ht="24">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="55"/>
     </row>
-    <row r="42" spans="1:2" ht="24">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="31"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="36">
+    <row r="45" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B45" s="54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="27" customFormat="1"/>
-    <row r="47" spans="1:2" ht="15">
+    <row r="46" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="142" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="142"/>
     </row>
-    <row r="48" spans="1:2" ht="24">
+    <row r="48" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="31"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
         <v>57</v>
       </c>
@@ -10052,7 +10060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="s">
         <v>59</v>
       </c>
@@ -10060,7 +10068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="s">
         <v>61</v>
       </c>
@@ -10068,19 +10076,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="24">
+    <row r="53" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="55"/>
       <c r="B53" s="57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="55"/>
       <c r="B54" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="s">
         <v>64</v>
       </c>
@@ -10088,19 +10096,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="55"/>
       <c r="B56" s="57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="55"/>
       <c r="B57" s="57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="s">
         <v>68</v>
       </c>
@@ -10108,13 +10116,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="24">
+    <row r="59" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="55"/>
       <c r="B59" s="57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="s">
         <v>68</v>
       </c>
@@ -10122,49 +10130,49 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="117" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="48" customFormat="1">
+    <row r="62" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="32"/>
     </row>
-    <row r="63" spans="1:2" s="48" customFormat="1" ht="15">
+    <row r="63" spans="1:2" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="142" t="s">
         <v>92</v>
       </c>
       <c r="B63" s="142"/>
     </row>
-    <row r="64" spans="1:2" s="48" customFormat="1" ht="24">
+    <row r="64" spans="1:2" s="48" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B64" s="117" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B65" s="32"/>
     </row>
-    <row r="66" spans="1:2" s="48" customFormat="1" ht="15">
+    <row r="66" spans="1:2" s="48" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="142" t="s">
         <v>33</v>
       </c>
       <c r="B66" s="142"/>
     </row>
-    <row r="67" spans="1:2" s="48" customFormat="1">
+    <row r="67" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="117" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="48" customFormat="1">
+    <row r="68" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="36"/>
     </row>
-    <row r="69" spans="1:2" s="27" customFormat="1" ht="15">
+    <row r="69" spans="1:2" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="142" t="s">
         <v>15</v>
       </c>
       <c r="B69" s="142"/>
     </row>
-    <row r="70" spans="1:2" s="48" customFormat="1">
+    <row r="70" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>16</v>
       </c>
@@ -10172,15 +10180,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="27" customFormat="1" ht="36">
+    <row r="71" spans="1:2" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B71" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="27" customFormat="1">
+    <row r="72" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>16</v>
       </c>
@@ -10188,27 +10196,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="27" customFormat="1" ht="36">
+    <row r="74" spans="1:2" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B74" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="27" customFormat="1">
+    <row r="75" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="27" customFormat="1">
+    <row r="76" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="27" customFormat="1" ht="36">
+    <row r="77" spans="1:2" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>16</v>
       </c>
@@ -10216,22 +10224,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="27" customFormat="1">
+    <row r="80" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="27" customFormat="1">
+    <row r="81" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="27" customFormat="1">
+    <row r="82" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
@@ -10239,23 +10247,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="27" customFormat="1" ht="36">
+    <row r="85" spans="1:2" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B85" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="27" customFormat="1">
+    <row r="86" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="27" customFormat="1">
+    <row r="87" spans="1:2" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="29"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" s="38"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="61" t="s">
         <v>16</v>
       </c>
@@ -10263,13 +10271,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="24">
+    <row r="99" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="55"/>
       <c r="B99" s="57" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="124" t="s">
         <v>94</v>
       </c>
@@ -10309,174 +10317,174 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" style="48" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="42"/>
+    <col min="1" max="1" width="7.42578125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" style="48" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="44"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="126" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="41"/>
     </row>
-    <row r="4" spans="1:3" ht="13">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="43" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="41"/>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="44"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="41"/>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="44"/>
       <c r="C7" s="41"/>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="41"/>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="44"/>
       <c r="C9" s="41"/>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
       <c r="B10" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="41"/>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="44"/>
       <c r="C11" s="41"/>
     </row>
-    <row r="12" spans="1:3" ht="30">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="41"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="44"/>
       <c r="C13" s="41"/>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="41"/>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="47"/>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="41"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="41"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="40"/>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="40"/>
       <c r="C27" s="41"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="40"/>
       <c r="C28" s="41"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="40"/>
       <c r="C29" s="41"/>

--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTH\Courses\Period 4\Project in Wireless Communication\Github\eq2440_2015\ProjectManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh\Documents\GitHub\eq2440_2015\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2369,11 +2369,14 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2392,9 +2395,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2883,14 +2883,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -2900,7 +2900,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3388,9 +3388,9 @@
   </sheetPr>
   <dimension ref="A1:BN81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3424,20 +3424,20 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="139"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3498,15 +3498,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="140">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="141">
         <v>42088</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="141"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>42114</v>
@@ -3733,178 +3733,178 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="23">
         <v>5</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="135" t="str">
+      <c r="J5" s="134" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135" t="str">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135" t="str">
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="135" t="str">
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AF5" s="135"/>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135" t="str">
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AM5" s="135"/>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="135"/>
-      <c r="AS5" s="135" t="str">
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="135"/>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="135"/>
-      <c r="AZ5" s="135" t="str">
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BA5" s="135"/>
-      <c r="BB5" s="135"/>
-      <c r="BC5" s="135"/>
-      <c r="BD5" s="135"/>
-      <c r="BE5" s="135"/>
-      <c r="BF5" s="135"/>
-      <c r="BG5" s="135" t="str">
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="BH5" s="135"/>
-      <c r="BI5" s="135"/>
-      <c r="BJ5" s="135"/>
-      <c r="BK5" s="135"/>
-      <c r="BL5" s="135"/>
-      <c r="BM5" s="135"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="22"/>
-      <c r="J6" s="141">
+      <c r="J6" s="135">
         <f>J4</f>
         <v>42114</v>
       </c>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141">
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135">
         <f>Q4</f>
         <v>42121</v>
       </c>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141">
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135">
         <f>X4</f>
         <v>42128</v>
       </c>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141">
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135">
         <f>AE4</f>
         <v>42135</v>
       </c>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135">
         <f>AL4</f>
         <v>42142</v>
       </c>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="141"/>
-      <c r="AP6" s="141"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="141">
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135">
         <f>AS4</f>
         <v>42149</v>
       </c>
-      <c r="AT6" s="141"/>
-      <c r="AU6" s="141"/>
-      <c r="AV6" s="141"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="141"/>
-      <c r="AY6" s="141"/>
-      <c r="AZ6" s="141">
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135"/>
+      <c r="AZ6" s="135">
         <f>AZ4</f>
         <v>42156</v>
       </c>
-      <c r="BA6" s="141"/>
-      <c r="BB6" s="141"/>
-      <c r="BC6" s="141"/>
-      <c r="BD6" s="141"/>
-      <c r="BE6" s="141"/>
-      <c r="BF6" s="141"/>
-      <c r="BG6" s="141">
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135"/>
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135">
         <f>BG4</f>
         <v>42163</v>
       </c>
-      <c r="BH6" s="141"/>
-      <c r="BI6" s="141"/>
-      <c r="BJ6" s="141"/>
-      <c r="BK6" s="141"/>
-      <c r="BL6" s="141"/>
-      <c r="BM6" s="141"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="135"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
@@ -4866,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="90">
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I16" s="108">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -6225,7 +6225,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="90">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" si="14"/>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" si="14"/>
@@ -6883,7 +6883,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="108">
         <f t="shared" ref="I42" si="21">IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
@@ -6971,7 +6971,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="108">
         <f t="shared" ref="I43:I46" si="23">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
@@ -7059,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="108">
         <f t="shared" si="23"/>
@@ -7745,7 +7745,7 @@
         <v>7</v>
       </c>
       <c r="H52" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="108">
         <v>1</v>
@@ -7832,7 +7832,7 @@
         <v>7</v>
       </c>
       <c r="H53" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="108">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="108">
         <v>1</v>
@@ -9059,6 +9059,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="BG6:BM6"/>
     <mergeCell ref="AL6:AR6"/>
@@ -9067,20 +9081,6 @@
     <mergeCell ref="AL5:AR5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="AZ6:BF6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">

--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh\Documents\GitHub\eq2440_2015\ProjectManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="28680" windowHeight="17445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2369,14 +2369,11 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2395,6 +2392,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2883,14 +2883,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -2900,7 +2900,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3389,8 +3389,8 @@
   <dimension ref="A1:BN81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3424,20 +3424,20 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="140"/>
+      <c r="F3" s="139"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3498,15 +3498,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="141">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="140">
         <v>42088</v>
       </c>
-      <c r="F4" s="141"/>
+      <c r="F4" s="140"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>42114</v>
@@ -3733,178 +3733,178 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="23">
         <v>5</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="134" t="str">
+      <c r="J5" s="135" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134" t="str">
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134" t="str">
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134" t="str">
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="135"/>
+      <c r="AE5" s="135" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="134"/>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="134"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="134" t="str">
+      <c r="AF5" s="135"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="135"/>
+      <c r="AL5" s="135" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AM5" s="134"/>
-      <c r="AN5" s="134"/>
-      <c r="AO5" s="134"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="134"/>
-      <c r="AR5" s="134"/>
-      <c r="AS5" s="134" t="str">
+      <c r="AM5" s="135"/>
+      <c r="AN5" s="135"/>
+      <c r="AO5" s="135"/>
+      <c r="AP5" s="135"/>
+      <c r="AQ5" s="135"/>
+      <c r="AR5" s="135"/>
+      <c r="AS5" s="135" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="AT5" s="134"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="134"/>
-      <c r="AW5" s="134"/>
-      <c r="AX5" s="134"/>
-      <c r="AY5" s="134"/>
-      <c r="AZ5" s="134" t="str">
+      <c r="AT5" s="135"/>
+      <c r="AU5" s="135"/>
+      <c r="AV5" s="135"/>
+      <c r="AW5" s="135"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="135"/>
+      <c r="AZ5" s="135" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BA5" s="134"/>
-      <c r="BB5" s="134"/>
-      <c r="BC5" s="134"/>
-      <c r="BD5" s="134"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="134"/>
-      <c r="BG5" s="134" t="str">
+      <c r="BA5" s="135"/>
+      <c r="BB5" s="135"/>
+      <c r="BC5" s="135"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="135"/>
+      <c r="BG5" s="135" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="134"/>
-      <c r="BJ5" s="134"/>
-      <c r="BK5" s="134"/>
-      <c r="BL5" s="134"/>
-      <c r="BM5" s="134"/>
+      <c r="BH5" s="135"/>
+      <c r="BI5" s="135"/>
+      <c r="BJ5" s="135"/>
+      <c r="BK5" s="135"/>
+      <c r="BL5" s="135"/>
+      <c r="BM5" s="135"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="22"/>
-      <c r="J6" s="135">
+      <c r="J6" s="141">
         <f>J4</f>
         <v>42114</v>
       </c>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="135"/>
-      <c r="Q6" s="135">
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141">
         <f>Q4</f>
         <v>42121</v>
       </c>
-      <c r="R6" s="135"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="135">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141">
         <f>X4</f>
         <v>42128</v>
       </c>
-      <c r="Y6" s="135"/>
-      <c r="Z6" s="135"/>
-      <c r="AA6" s="135"/>
-      <c r="AB6" s="135"/>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135">
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="141"/>
+      <c r="AD6" s="141"/>
+      <c r="AE6" s="141">
         <f>AE4</f>
         <v>42135</v>
       </c>
-      <c r="AF6" s="135"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="135"/>
-      <c r="AK6" s="135"/>
-      <c r="AL6" s="135">
+      <c r="AF6" s="141"/>
+      <c r="AG6" s="141"/>
+      <c r="AH6" s="141"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="141"/>
+      <c r="AK6" s="141"/>
+      <c r="AL6" s="141">
         <f>AL4</f>
         <v>42142</v>
       </c>
-      <c r="AM6" s="135"/>
-      <c r="AN6" s="135"/>
-      <c r="AO6" s="135"/>
-      <c r="AP6" s="135"/>
-      <c r="AQ6" s="135"/>
-      <c r="AR6" s="135"/>
-      <c r="AS6" s="135">
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="141"/>
+      <c r="AO6" s="141"/>
+      <c r="AP6" s="141"/>
+      <c r="AQ6" s="141"/>
+      <c r="AR6" s="141"/>
+      <c r="AS6" s="141">
         <f>AS4</f>
         <v>42149</v>
       </c>
-      <c r="AT6" s="135"/>
-      <c r="AU6" s="135"/>
-      <c r="AV6" s="135"/>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="135"/>
-      <c r="AY6" s="135"/>
-      <c r="AZ6" s="135">
+      <c r="AT6" s="141"/>
+      <c r="AU6" s="141"/>
+      <c r="AV6" s="141"/>
+      <c r="AW6" s="141"/>
+      <c r="AX6" s="141"/>
+      <c r="AY6" s="141"/>
+      <c r="AZ6" s="141">
         <f>AZ4</f>
         <v>42156</v>
       </c>
-      <c r="BA6" s="135"/>
-      <c r="BB6" s="135"/>
-      <c r="BC6" s="135"/>
-      <c r="BD6" s="135"/>
-      <c r="BE6" s="135"/>
-      <c r="BF6" s="135"/>
-      <c r="BG6" s="135">
+      <c r="BA6" s="141"/>
+      <c r="BB6" s="141"/>
+      <c r="BC6" s="141"/>
+      <c r="BD6" s="141"/>
+      <c r="BE6" s="141"/>
+      <c r="BF6" s="141"/>
+      <c r="BG6" s="141">
         <f>BG4</f>
         <v>42163</v>
       </c>
-      <c r="BH6" s="135"/>
-      <c r="BI6" s="135"/>
-      <c r="BJ6" s="135"/>
-      <c r="BK6" s="135"/>
-      <c r="BL6" s="135"/>
-      <c r="BM6" s="135"/>
+      <c r="BH6" s="141"/>
+      <c r="BI6" s="141"/>
+      <c r="BJ6" s="141"/>
+      <c r="BK6" s="141"/>
+      <c r="BL6" s="141"/>
+      <c r="BM6" s="141"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
@@ -4866,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="90">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="I16" s="108">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -6225,7 +6225,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" si="14"/>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" si="14"/>
@@ -7147,7 +7147,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="108">
         <f t="shared" si="23"/>
@@ -8006,7 +8006,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="108">
         <v>1</v>
@@ -9059,6 +9059,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BG6:BM6"/>
+    <mergeCell ref="AL6:AR6"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AS6:AY6"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="AZ6:BF6"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="J5:P5"/>
@@ -9067,20 +9081,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BG6:BM6"/>
-    <mergeCell ref="AL6:AR6"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AS6:AY6"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AZ5:BF5"/>
-    <mergeCell ref="AZ6:BF6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">

--- a/ProjectManagement/ganttChart.xlsx
+++ b/ProjectManagement/ganttChart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Animesh\Documents\GitHub\eq2440_2015\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2369,11 +2369,14 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="1"/>
@@ -2392,9 +2395,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2883,14 +2883,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -2900,7 +2900,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3389,8 +3389,8 @@
   <dimension ref="A1:BN81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
+      <pane ySplit="7" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3424,20 +3424,20 @@
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="138" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="139"/>
+      <c r="F3" s="140"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
@@ -3498,15 +3498,15 @@
       <c r="BM3" s="8"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="140">
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="141">
         <v>42088</v>
       </c>
-      <c r="F4" s="140"/>
+      <c r="F4" s="141"/>
       <c r="J4" s="9">
         <f>E4-WEEKDAY(E4,1)+2+7*(E5-1)</f>
         <v>42114</v>
@@ -3733,178 +3733,178 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
       <c r="E5" s="23">
         <v>5</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="J5" s="135" t="str">
+      <c r="J5" s="134" t="str">
         <f>"Week "&amp;(J4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135" t="str">
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134" t="str">
         <f>"Week "&amp;(Q4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135" t="str">
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134" t="str">
         <f>"Week "&amp;(X4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
-      <c r="AA5" s="135"/>
-      <c r="AB5" s="135"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="135"/>
-      <c r="AE5" s="135" t="str">
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134" t="str">
         <f>"Week "&amp;(AE4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AF5" s="135"/>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="135"/>
-      <c r="AK5" s="135"/>
-      <c r="AL5" s="135" t="str">
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="134"/>
+      <c r="AI5" s="134"/>
+      <c r="AJ5" s="134"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="134" t="str">
         <f>"Week "&amp;(AL4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AM5" s="135"/>
-      <c r="AN5" s="135"/>
-      <c r="AO5" s="135"/>
-      <c r="AP5" s="135"/>
-      <c r="AQ5" s="135"/>
-      <c r="AR5" s="135"/>
-      <c r="AS5" s="135" t="str">
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="134"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="134"/>
+      <c r="AR5" s="134"/>
+      <c r="AS5" s="134" t="str">
         <f>"Week "&amp;(AS4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="AT5" s="135"/>
-      <c r="AU5" s="135"/>
-      <c r="AV5" s="135"/>
-      <c r="AW5" s="135"/>
-      <c r="AX5" s="135"/>
-      <c r="AY5" s="135"/>
-      <c r="AZ5" s="135" t="str">
+      <c r="AT5" s="134"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="134"/>
+      <c r="AW5" s="134"/>
+      <c r="AX5" s="134"/>
+      <c r="AY5" s="134"/>
+      <c r="AZ5" s="134" t="str">
         <f>"Week "&amp;(AZ4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BA5" s="135"/>
-      <c r="BB5" s="135"/>
-      <c r="BC5" s="135"/>
-      <c r="BD5" s="135"/>
-      <c r="BE5" s="135"/>
-      <c r="BF5" s="135"/>
-      <c r="BG5" s="135" t="str">
+      <c r="BA5" s="134"/>
+      <c r="BB5" s="134"/>
+      <c r="BC5" s="134"/>
+      <c r="BD5" s="134"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="134"/>
+      <c r="BG5" s="134" t="str">
         <f>"Week "&amp;(BG4-($E$4-WEEKDAY($E$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="BH5" s="135"/>
-      <c r="BI5" s="135"/>
-      <c r="BJ5" s="135"/>
-      <c r="BK5" s="135"/>
-      <c r="BL5" s="135"/>
-      <c r="BM5" s="135"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="134"/>
+      <c r="BJ5" s="134"/>
+      <c r="BK5" s="134"/>
+      <c r="BL5" s="134"/>
+      <c r="BM5" s="134"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="B6" s="22"/>
-      <c r="J6" s="141">
+      <c r="J6" s="135">
         <f>J4</f>
         <v>42114</v>
       </c>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141">
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135">
         <f>Q4</f>
         <v>42121</v>
       </c>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141">
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135">
         <f>X4</f>
         <v>42128</v>
       </c>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141">
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="135"/>
+      <c r="AE6" s="135">
         <f>AE4</f>
         <v>42135</v>
       </c>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141">
+      <c r="AF6" s="135"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="135"/>
+      <c r="AK6" s="135"/>
+      <c r="AL6" s="135">
         <f>AL4</f>
         <v>42142</v>
       </c>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="141"/>
-      <c r="AP6" s="141"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="141">
+      <c r="AM6" s="135"/>
+      <c r="AN6" s="135"/>
+      <c r="AO6" s="135"/>
+      <c r="AP6" s="135"/>
+      <c r="AQ6" s="135"/>
+      <c r="AR6" s="135"/>
+      <c r="AS6" s="135">
         <f>AS4</f>
         <v>42149</v>
       </c>
-      <c r="AT6" s="141"/>
-      <c r="AU6" s="141"/>
-      <c r="AV6" s="141"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="141"/>
-      <c r="AY6" s="141"/>
-      <c r="AZ6" s="141">
+      <c r="AT6" s="135"/>
+      <c r="AU6" s="135"/>
+      <c r="AV6" s="135"/>
+      <c r="AW6" s="135"/>
+      <c r="AX6" s="135"/>
+      <c r="AY6" s="135"/>
+      <c r="AZ6" s="135">
         <f>AZ4</f>
         <v>42156</v>
       </c>
-      <c r="BA6" s="141"/>
-      <c r="BB6" s="141"/>
-      <c r="BC6" s="141"/>
-      <c r="BD6" s="141"/>
-      <c r="BE6" s="141"/>
-      <c r="BF6" s="141"/>
-      <c r="BG6" s="141">
+      <c r="BA6" s="135"/>
+      <c r="BB6" s="135"/>
+      <c r="BC6" s="135"/>
+      <c r="BD6" s="135"/>
+      <c r="BE6" s="135"/>
+      <c r="BF6" s="135"/>
+      <c r="BG6" s="135">
         <f>BG4</f>
         <v>42163</v>
       </c>
-      <c r="BH6" s="141"/>
-      <c r="BI6" s="141"/>
-      <c r="BJ6" s="141"/>
-      <c r="BK6" s="141"/>
-      <c r="BL6" s="141"/>
-      <c r="BM6" s="141"/>
+      <c r="BH6" s="135"/>
+      <c r="BI6" s="135"/>
+      <c r="BJ6" s="135"/>
+      <c r="BK6" s="135"/>
+      <c r="BL6" s="135"/>
+      <c r="BM6" s="135"/>
     </row>
     <row r="7" spans="1:66" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
@@ -4866,7 +4866,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="90">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I16" s="108">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -6225,7 +6225,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="90">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="I34" s="108">
         <f t="shared" si="14"/>
@@ -6459,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="90">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I37" s="108">
         <f t="shared" si="14"/>
@@ -7235,7 +7235,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="108">
         <f t="shared" si="23"/>
@@ -7323,7 +7323,7 @@
         <v>34</v>
       </c>
       <c r="H47" s="90">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I47" s="108">
         <f t="shared" ref="I47" si="25">IF(OR(F47=0,E47=0),0,NETWORKDAYS(E47,F47))</f>
@@ -8093,7 +8093,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="108">
         <v>1</v>
@@ -9059,6 +9059,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="X6:AD6"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="AE6:AK6"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="X5:AD5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="BG6:BM6"/>
     <mergeCell ref="AL6:AR6"/>
@@ -9067,20 +9081,6 @@
     <mergeCell ref="AL5:AR5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="AZ6:BF6"/>
-    <mergeCell ref="X6:AD6"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="AE6:AK6"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H70:H81 H8:H16 H30 H34 H37:H56 H23:H24">
